--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,7 +44,112 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 12:16 AM</t>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>-48.5100</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>275.00</t>
+  </si>
+  <si>
+    <t>165.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>Friday, 1 August, 2025 2:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +359,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +371,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +779,301 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>23</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
+        <v>35</v>
+      </c>
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>38</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>30</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>39</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>40</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
+        <v>42</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>39</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>44</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>289.71499999999997</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>46</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>47</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>48</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +1087,45 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -149,7 +149,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 2:22 PM</t>
+    <t>Friday, 1 August, 2025 2:44 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -137,6 +137,15 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -149,7 +158,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 2:44 PM</t>
+    <t>Friday, 1 August, 2025 2:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1021,7 +1030,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1031,49 +1040,82 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>289.71499999999997</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>45</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
         <v>46</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>39</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
         <v>47</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
         <v>48</v>
       </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+      <c t="s" r="Q15" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="P16" s="13">
+        <v>304.71499999999997</v>
+      </c>
+      <c r="Q16" s="13"/>
+    </row>
+    <row r="17" ht="16.5" customHeight="1">
+      <c t="s" r="A17" s="14">
+        <v>49</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c t="s" r="G17" s="15">
+        <v>50</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c t="s" r="K17" s="17">
+        <v>51</v>
+      </c>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="57">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1122,10 +1164,15 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="K17:Q17"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -125,16 +125,40 @@
     <t>0:3</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>70:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -158,7 +182,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 2:54 PM</t>
+    <t>Friday, 1 August, 2025 3:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -997,21 +1021,21 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>22</v>
@@ -1023,7 +1047,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1036,18 +1060,18 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1056,66 +1080,132 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
-      <c r="P16" s="13">
-        <v>304.71499999999997</v>
-      </c>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" ht="16.5" customHeight="1">
-      <c t="s" r="A17" s="14">
-        <v>49</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c t="s" r="G17" s="15">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
         <v>50</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="16"/>
-      <c t="s" r="K17" s="17">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>30</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>40</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
         <v>51</v>
       </c>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>40</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>55</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>329.71499999999997</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>57</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>58</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>59</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1169,10 +1259,20 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="L15:M15"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="K17:Q17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -125,6 +125,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -146,10 +158,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -1027,18 +1039,18 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1047,31 +1059,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1093,7 +1105,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1104,7 +1116,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1113,7 +1125,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1126,15 +1138,15 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>22</v>
@@ -1146,20 +1158,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1174,38 +1186,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>329.71499999999997</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>57</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>58</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>44</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>59</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>348.54500000000002</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>61</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>62</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>63</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1269,10 +1314,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>BRONCHONEER 30 TAB</t>
   </si>
   <si>
@@ -77,9 +89,6 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>82.50</t>
   </si>
   <si>
@@ -110,6 +119,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -131,12 +152,6 @@
     <t>1:3</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -194,7 +209,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 3:34 PM</t>
+    <t>Friday, 1 August, 2025 3:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -868,7 +883,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -878,14 +893,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -901,7 +916,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -911,14 +926,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -934,7 +949,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -944,11 +959,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -960,14 +975,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -977,14 +992,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,14 +1008,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1010,14 +1025,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1026,14 +1041,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1043,11 +1058,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1059,31 +1074,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1092,31 +1107,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1125,31 +1140,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,31 +1173,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1191,66 +1206,132 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>59</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>33</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>49</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>60</v>
       </c>
-      <c t="s" r="Q18" s="12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>348.54500000000002</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>61</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c t="s" r="Q19" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
         <v>62</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
         <v>63</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>49</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>64</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>65</v>
+      </c>
+      <c t="s" r="Q20" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>383.375</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>66</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>67</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>68</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1319,10 +1400,20 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -209,7 +209,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 3:41 PM</t>
+    <t>Friday, 1 August, 2025 4:04 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -119,10 +119,19 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>51.00</t>
@@ -1081,7 +1090,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1091,14 +1100,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1107,14 +1116,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1124,14 +1133,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1140,31 +1149,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1173,20 +1182,20 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1197,7 +1206,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1206,7 +1215,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1219,18 +1228,18 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1252,7 +1261,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1279,59 +1288,92 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>383.375</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>65</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>66</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>52</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>67</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c t="s" r="Q21" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="P22" s="13">
+        <v>395.375</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" ht="16.5" customHeight="1">
+      <c t="s" r="A23" s="14">
+        <v>69</v>
+      </c>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c t="s" r="G23" s="15">
+        <v>70</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c t="s" r="K23" s="17">
+        <v>71</v>
+      </c>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="87">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1410,10 +1452,15 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="K23:Q23"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -65,15 +65,18 @@
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>BRONCHONEER 30 TAB</t>
   </si>
   <si>
@@ -122,18 +125,21 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -158,7 +164,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>6:3</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -218,7 +224,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 4:04 PM</t>
+    <t>Friday, 1 August, 2025 4:15 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -909,7 +915,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -918,7 +924,7 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
@@ -935,14 +941,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -951,14 +957,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -968,11 +974,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -984,14 +990,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1001,11 +1007,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1017,14 +1023,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1034,14 +1040,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1050,14 +1056,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1067,11 +1073,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1083,14 +1089,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1100,11 +1106,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1116,14 +1122,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1133,14 +1139,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1149,14 +1155,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1166,11 +1172,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1182,31 +1188,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1215,31 +1221,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1248,31 +1254,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1281,31 +1287,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1314,31 +1320,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1349,7 +1355,7 @@
     </row>
     <row r="23" ht="16.5" customHeight="1">
       <c t="s" r="A23" s="14">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -1357,13 +1363,13 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
       <c t="s" r="G23" s="15">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
       <c t="s" r="K23" s="17">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L23" s="17"/>
       <c r="M23" s="17"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -224,7 +224,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 4:15 PM</t>
+    <t>Friday, 1 August, 2025 4:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -110,6 +110,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -134,6 +146,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -146,6 +167,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -164,7 +194,10 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:3</t>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>50.4900</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -188,19 +221,34 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
   </si>
   <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -224,7 +272,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 4:26 PM</t>
+    <t>Friday, 1 August, 2025 4:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1047,7 +1095,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1080,7 +1128,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1129,7 +1177,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1139,14 +1187,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>49</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1155,14 +1203,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1172,11 +1220,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1195,21 +1243,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1221,31 +1269,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>59</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>60</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1254,31 +1302,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1287,28 +1335,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1320,20 +1368,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1344,42 +1392,174 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>72</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>38</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>65</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>73</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="22" ht="25.5" customHeight="1">
-      <c r="P22" s="13">
-        <v>395.375</v>
-      </c>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="14">
-        <v>71</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c t="s" r="G23" s="15">
-        <v>72</v>
-      </c>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
-      <c t="s" r="K23" s="17">
-        <v>73</v>
-      </c>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
-      <c r="Q23" s="17"/>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>75</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>76</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>65</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>77</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>80</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>38</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>65</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>81</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>83</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>84</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>65</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>85</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>686.875</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>87</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>88</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>89</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1463,10 +1643,30 @@
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
     <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="K23:Q23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 4:54 PM</t>
+    <t>Friday, 1 August, 2025 4:56 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -155,6 +167,18 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -206,9 +230,6 @@
     <t>70:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -221,10 +242,7 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>5:0</t>
+    <t>14.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -239,15 +257,9 @@
     <t>سرنجات انسولين</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
-    <t>14.0000</t>
-  </si>
-  <si>
     <t>2:0</t>
   </si>
   <si>
@@ -272,7 +284,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 4:56 PM</t>
+    <t>Friday, 1 August, 2025 5:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1062,7 +1074,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1128,7 +1140,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1161,7 +1173,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1177,7 +1189,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1187,14 +1199,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1203,14 +1215,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1227,7 +1239,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1243,24 +1255,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,14 +1281,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1286,14 +1298,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>59</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1309,7 +1321,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1319,14 +1331,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1348,18 +1360,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
+        <v>66</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>67</v>
-      </c>
-      <c t="s" r="Q20" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1375,24 +1387,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,20 +1413,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1441,24 +1453,24 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>79</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1467,28 +1479,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1500,66 +1512,132 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>84</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>42</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>53</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>85</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
         <v>86</v>
       </c>
-      <c t="s" r="Q25" s="12">
+      <c t="s" r="Q26" s="12">
         <v>21</v>
       </c>
     </row>
-    <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>686.875</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>87</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>88</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>53</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
         <v>89</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>791.875</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>91</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>92</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>93</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1663,10 +1741,20 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -224,6 +224,18 @@
     <t>50.4900</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8463:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -239,30 +251,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
   </si>
   <si>
     <t>14.0000</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -284,7 +299,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:26 PM</t>
+    <t>Friday, 1 August, 2025 5:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1426,7 +1441,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1453,7 +1468,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1463,14 +1478,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1479,7 +1494,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1496,14 +1511,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1512,14 +1527,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1529,14 +1544,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1545,14 +1560,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1562,14 +1577,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1578,14 +1593,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1595,49 +1610,82 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>791.875</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>91</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>92</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
         <v>93</v>
       </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>53</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>94</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>798.875</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>96</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>97</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>98</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1751,10 +1799,15 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -110,6 +110,15 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -299,7 +308,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:37 PM</t>
+    <t>Friday, 1 August, 2025 5:39 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1105,7 +1114,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1115,14 +1124,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1131,14 +1140,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1148,11 +1157,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1164,14 +1173,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1181,14 +1190,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1214,14 +1223,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1230,14 +1239,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1254,7 +1263,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1270,24 +1279,24 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1296,28 +1305,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1329,14 +1338,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1353,7 +1362,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1369,7 +1378,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1379,14 +1388,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1395,14 +1404,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1412,14 +1421,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q21" s="12">
-        <v>67</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1445,14 +1454,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1461,28 +1470,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>21</v>
@@ -1494,31 +1503,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1534,24 +1543,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>84</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1560,31 +1569,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>88</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1600,13 +1609,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1617,7 +1626,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1633,59 +1642,92 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>798.875</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>95</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
         <v>96</v>
       </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>56</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
         <v>97</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
         <v>98</v>
       </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+      <c t="s" r="Q29" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>842.875</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>99</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>100</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>101</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1804,10 +1846,15 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -155,6 +155,18 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -179,9 +191,6 @@
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>90.00</t>
   </si>
   <si>
@@ -308,7 +317,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:39 PM</t>
+    <t>Friday, 1 August, 2025 5:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,13 +1255,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1263,7 +1272,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1279,7 +1288,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1289,14 +1298,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1305,7 +1314,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1318,7 +1327,7 @@
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1329,7 +1338,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1345,21 +1354,21 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1371,14 +1380,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1395,7 +1404,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1411,7 +1420,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1421,14 +1430,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>70</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1437,14 +1446,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1454,14 +1463,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1487,14 +1496,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1503,28 +1512,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1536,31 +1545,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1582,18 +1591,18 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1602,31 +1611,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1642,13 +1651,13 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1659,7 +1668,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1675,59 +1684,92 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>842.875</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>98</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
         <v>99</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>49</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>100</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>101</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c t="s" r="Q30" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>914.875</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>102</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>103</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>104</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1851,10 +1893,15 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,24 +44,33 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
     <t>9.1200</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -89,6 +98,15 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -167,6 +185,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -188,6 +215,12 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -317,7 +350,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:42 PM</t>
+    <t>Friday, 1 August, 2025 5:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -975,7 +1008,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -984,14 +1017,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1001,14 +1034,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1017,14 +1050,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1034,14 +1067,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1050,14 +1083,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1067,14 +1100,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>27</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>28</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1090,7 +1123,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1100,14 +1133,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1116,14 +1149,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1133,14 +1166,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1149,14 +1182,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1166,14 +1199,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1182,14 +1215,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1199,14 +1232,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1215,14 +1248,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1232,14 +1265,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1248,31 +1281,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1281,14 +1314,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1298,14 +1331,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1314,31 +1347,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1347,31 +1380,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1380,14 +1413,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1397,14 +1430,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1413,14 +1446,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1430,14 +1463,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1446,14 +1479,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1463,14 +1496,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1479,31 +1512,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1512,14 +1545,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1529,14 +1562,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1545,31 +1578,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1578,31 +1611,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1611,31 +1644,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1644,31 +1677,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1677,31 +1710,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1710,66 +1743,198 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>99</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>51</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>55</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>100</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>914.875</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
+      <c t="s" r="Q31" s="12">
         <v>102</v>
       </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>103</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
+        <v>36</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>55</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
         <v>104</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
+        <v>106</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>51</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>55</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>107</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q33" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>109</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>110</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>55</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>111</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1197.875</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>113</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>114</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>115</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1898,10 +2063,30 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:44 PM</t>
+    <t>Friday, 1 August, 2025 5:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>228.00</t>
   </si>
   <si>
@@ -173,6 +185,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -317,9 +338,6 @@
     <t>6.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -350,7 +368,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:45 PM</t>
+    <t>Friday, 1 August, 2025 5:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1008,7 +1026,7 @@
         <v>15</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -1017,14 +1035,14 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1041,7 +1059,7 @@
         <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1074,7 +1092,7 @@
         <v>23</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1083,14 +1101,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1123,7 +1141,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1140,7 +1158,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1149,14 +1167,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1166,14 +1184,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1182,14 +1200,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1206,7 +1224,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1222,7 +1240,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1232,14 +1250,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1248,14 +1266,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1272,7 +1290,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1305,7 +1323,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1338,7 +1356,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1354,13 +1372,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1371,7 +1389,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1387,7 +1405,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1404,7 +1422,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1420,13 +1438,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1437,7 +1455,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1453,7 +1471,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1470,7 +1488,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1486,7 +1504,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1496,14 +1514,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,31 +1530,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1545,14 +1563,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1562,14 +1580,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1585,13 +1603,13 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1602,7 +1620,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1635,7 +1653,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,14 +1662,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1661,14 +1679,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>84</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1677,14 +1695,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1694,14 +1712,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1723,18 +1741,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1743,31 +1761,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1783,24 +1801,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1816,24 +1834,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>102</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1849,13 +1867,13 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1866,7 +1884,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1882,59 +1900,125 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>112</v>
       </c>
-      <c t="s" r="Q34" s="12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1197.875</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
+        <v>55</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>62</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
         <v>113</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>114</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c t="s" r="Q35" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>115</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>116</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>62</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>117</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1254.585</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>119</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>120</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>121</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2083,10 +2167,20 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -119,6 +119,18 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -143,9 +155,6 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
     <t>44.0000</t>
   </si>
   <si>
@@ -368,7 +377,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:46 PM</t>
+    <t>Friday, 1 August, 2025 5:49 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1207,7 +1216,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1217,11 +1226,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1233,14 +1242,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1257,7 +1266,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1273,7 +1282,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1283,11 +1292,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>28</v>
@@ -1299,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1316,14 +1325,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1332,14 +1341,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1349,11 +1358,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1365,14 +1374,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1382,14 +1391,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1398,14 +1407,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1438,21 +1447,21 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>28</v>
@@ -1464,20 +1473,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1504,7 +1513,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1514,14 +1523,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1530,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1554,7 +1563,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1580,11 +1589,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -1596,31 +1605,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1636,21 +1645,21 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1702,7 +1711,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>91</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1794,28 +1803,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -1827,31 +1836,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1867,24 +1876,24 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1900,13 +1909,13 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1933,13 +1942,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -1950,7 +1959,7 @@
         <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1966,59 +1975,92 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1254.585</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>118</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>119</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>65</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>120</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="P38" s="13">
+        <v>1276.585</v>
+      </c>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="16.5" customHeight="1">
+      <c t="s" r="A39" s="14">
+        <v>122</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c t="s" r="G39" s="15">
+        <v>123</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c t="s" r="K39" s="17">
+        <v>124</v>
+      </c>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="167">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2177,10 +2219,15 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="K39:Q39"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>72.0000</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FUNGICAN 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -260,6 +269,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -377,7 +395,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:49 PM</t>
+    <t>Friday, 1 August, 2025 5:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1513,7 +1531,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1530,7 +1548,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1546,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1556,14 +1574,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1572,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1596,7 +1614,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1612,7 +1630,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1622,11 +1640,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>28</v>
@@ -1638,31 +1656,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1678,21 +1696,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1704,14 +1722,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1721,14 +1739,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1737,14 +1755,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1770,14 +1788,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1805,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1803,14 +1821,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,14 +1838,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1836,31 +1854,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>28</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1869,31 +1887,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1902,14 +1920,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1926,7 +1944,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1942,7 +1960,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,14 +1970,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>114</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,7 +2010,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2008,7 +2026,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2018,49 +2036,115 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
         <v>121</v>
       </c>
-      <c t="s" r="Q37" s="12">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>58</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>65</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>122</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="38" ht="24.75" customHeight="1">
-      <c r="P38" s="13">
-        <v>1276.585</v>
-      </c>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" ht="16.5" customHeight="1">
-      <c t="s" r="A39" s="14">
-        <v>122</v>
-      </c>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c t="s" r="G39" s="15">
-        <v>123</v>
-      </c>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="16"/>
-      <c t="s" r="K39" s="17">
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
         <v>124</v>
       </c>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>125</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>65</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>126</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1441.585</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>128</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>129</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>130</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2224,10 +2308,20 @@
     <mergeCell ref="H37:K37"/>
     <mergeCell ref="L37:M37"/>
     <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -170,6 +170,18 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -317,10 +329,7 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>50.4900</t>
+    <t>67.3200</t>
   </si>
   <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
@@ -362,7 +371,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -395,7 +404,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:53 PM</t>
+    <t>Friday, 1 August, 2025 5:54 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1449,7 +1458,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1465,7 +1474,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1475,11 +1484,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>28</v>
@@ -1491,20 +1500,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1531,24 +1540,24 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1557,14 +1566,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1574,14 +1583,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1590,14 +1599,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1614,7 +1623,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1630,7 +1639,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1640,14 +1649,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1665,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,11 +1682,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>28</v>
@@ -1689,31 +1698,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,28 +1731,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1755,14 +1764,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1795,7 +1804,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1814,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1845,7 +1854,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,14 +1863,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,28 +1929,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>28</v>
@@ -1953,31 +1962,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1993,24 +2002,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>116</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>117</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2026,13 +2035,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2043,7 +2052,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2059,13 +2068,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2076,7 +2085,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2092,59 +2101,92 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1441.585</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
+        <v>127</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
         <v>128</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>69</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
         <v>129</v>
       </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
         <v>130</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c t="s" r="Q40" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1474.415</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>131</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>132</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>133</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2318,10 +2360,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>FUNGICAN 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -290,6 +299,18 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -404,7 +425,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 5:54 PM</t>
+    <t>Friday, 1 August, 2025 6:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1623,7 +1644,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1639,7 +1660,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1649,14 +1670,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1665,14 +1686,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1689,7 +1710,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1705,7 +1726,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1715,11 +1736,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>28</v>
@@ -1731,31 +1752,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1771,13 +1792,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1804,7 +1825,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1814,11 +1835,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1830,14 +1851,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1854,7 +1875,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,7 +1908,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1896,14 +1917,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1913,14 +1934,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,7 +1974,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>28</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1962,31 +1983,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1995,31 +2016,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>117</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2035,7 +2056,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2045,14 +2066,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2061,14 +2082,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2078,14 +2099,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>12</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2094,7 +2115,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2111,14 +2132,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2127,14 +2148,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2151,42 +2172,108 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>131</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>62</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>69</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
+        <v>132</v>
+      </c>
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1474.415</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
-        <v>131</v>
-      </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
-        <v>132</v>
-      </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
-        <v>133</v>
-      </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>134</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>135</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>69</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>136</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="P43" s="13">
+        <v>1532.915</v>
+      </c>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" ht="16.5" customHeight="1">
+      <c t="s" r="A44" s="14">
+        <v>138</v>
+      </c>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c t="s" r="G44" s="15">
+        <v>139</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c t="s" r="K44" s="17">
+        <v>140</v>
+      </c>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="192">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2365,10 +2452,20 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="K44:Q44"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -83,6 +83,21 @@
     <t>9.1200</t>
   </si>
   <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -95,7 +110,13 @@
     <t>18.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
   </si>
   <si>
     <t>BRONCHONEER 30 TAB</t>
@@ -185,21 +206,21 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>7:0</t>
+    <t>6:2</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>15.8400</t>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>0:2</t>
   </si>
   <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -365,6 +386,18 @@
     <t>2.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -425,7 +458,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 6:03 PM</t>
+    <t>Friday, 1 August, 2025 6:11 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1198,7 +1231,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1208,14 +1241,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1231,7 +1264,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1248,7 +1281,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1264,7 +1297,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1274,14 +1307,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1297,7 +1330,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1347,7 +1380,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1363,7 +1396,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1373,14 +1406,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1389,14 +1422,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1406,14 +1439,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1422,14 +1455,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1439,14 +1472,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1455,14 +1488,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1472,11 +1505,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1488,14 +1521,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1505,14 +1538,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1521,14 +1554,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1545,7 +1578,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>28</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1554,20 +1587,20 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1594,7 +1627,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1611,7 +1644,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1627,24 +1660,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1653,14 +1686,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1670,14 +1703,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1686,14 +1719,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1726,7 +1759,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1759,7 +1792,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1769,14 +1802,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1785,31 +1818,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1818,14 +1851,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1835,14 +1868,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1851,20 +1884,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1891,7 +1924,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1901,11 +1934,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1917,14 +1950,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1941,7 +1974,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,7 +2007,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1983,7 +2016,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2000,14 +2033,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>101</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2040,7 +2073,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2049,31 +2082,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2082,31 +2115,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>124</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2122,24 +2155,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2148,31 +2181,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2181,31 +2214,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2214,66 +2247,165 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>139</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>51</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>76</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>140</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>142</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>25</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>76</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>143</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>28</v>
       </c>
     </row>
-    <row r="43" ht="24.75" customHeight="1">
-      <c r="P43" s="13">
-        <v>1532.915</v>
-      </c>
-      <c r="Q43" s="13"/>
-    </row>
-    <row r="44" ht="16.5" customHeight="1">
-      <c t="s" r="A44" s="14">
-        <v>138</v>
-      </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c t="s" r="G44" s="15">
-        <v>139</v>
-      </c>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="16"/>
-      <c t="s" r="K44" s="17">
-        <v>140</v>
-      </c>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
-      <c r="O44" s="17"/>
-      <c r="P44" s="17"/>
-      <c r="Q44" s="17"/>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>145</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>146</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>76</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>147</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="P46" s="13">
+        <v>1925.7550000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
+        <v>149</v>
+      </c>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
+        <v>150</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
+        <v>151</v>
+      </c>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="192">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2462,10 +2594,25 @@
     <mergeCell ref="H42:K42"/>
     <mergeCell ref="L42:M42"/>
     <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P43:Q43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="K44:Q44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -458,7 +458,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 6:11 PM</t>
+    <t>Friday, 1 August, 2025 6:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -446,6 +446,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -458,7 +464,7 @@
     <t>24.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 6:13 PM</t>
+    <t>Friday, 1 August, 2025 6:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2353,7 +2359,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2363,49 +2369,82 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>62</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>1925.7550000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>147</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>148</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>76</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
         <v>149</v>
       </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
         <v>150</v>
       </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
+      <c t="s" r="Q46" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>1990.7550000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
         <v>151</v>
       </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>152</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>153</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2609,10 +2648,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -368,6 +368,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -456,12 +465,6 @@
   </si>
   <si>
     <t>22:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
   </si>
   <si>
     <t>Friday, 1 August, 2025 6:31 PM</t>
@@ -2095,7 +2098,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2105,14 +2108,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2121,14 +2124,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2138,14 +2141,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2154,14 +2157,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2171,14 +2174,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2187,31 +2190,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,14 +2223,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2237,14 +2240,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>135</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2270,14 +2273,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>138</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>51</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2293,7 +2296,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2310,7 +2313,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>12</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2326,7 +2329,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2343,7 +2346,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2359,7 +2362,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2369,11 +2372,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>62</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>28</v>
@@ -2385,14 +2388,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2402,49 +2405,82 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>62</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>1990.7550000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>150</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
         <v>151</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>76</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>120</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2014.7550000000001</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
         <v>152</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
         <v>153</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>154</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2653,10 +2689,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -467,7 +467,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 6:31 PM</t>
+    <t>Friday, 1 August, 2025 6:32 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -131,6 +131,18 @@
     <t>0:-1</t>
   </si>
   <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -467,7 +479,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 6:32 PM</t>
+    <t>Friday, 1 August, 2025 6:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1339,7 +1351,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1349,14 +1361,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1365,14 +1377,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1405,7 +1417,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1415,11 +1427,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1431,14 +1443,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1455,7 +1467,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1471,7 +1483,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1481,11 +1493,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>28</v>
@@ -1497,14 +1509,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1514,14 +1526,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1587,7 +1599,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1596,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1620,7 +1632,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>28</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1629,14 +1641,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1646,11 +1658,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -1662,20 +1674,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1702,24 +1714,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1728,14 +1740,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1745,11 +1757,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1761,7 +1773,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1778,14 +1790,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1794,14 +1806,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1818,7 +1830,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1834,7 +1846,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1844,14 +1856,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1877,11 +1889,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -1893,31 +1905,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1926,28 +1938,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2032,7 +2044,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2082,7 +2094,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2091,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2115,7 +2127,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2124,14 +2136,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>108</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>28</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,7 +2226,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2236,7 +2248,7 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2247,7 +2259,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2263,24 +2275,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>138</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2289,7 +2301,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2302,18 +2314,18 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>51</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2322,31 +2334,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2355,31 +2367,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2388,28 +2400,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>28</v>
@@ -2421,66 +2433,99 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>48</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>28</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2014.7550000000001</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
-        <v>152</v>
-      </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
-        <v>153</v>
-      </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>154</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>155</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>80</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>124</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="P49" s="13">
+        <v>2063.7550000000001</v>
+      </c>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" ht="16.5" customHeight="1">
+      <c t="s" r="A50" s="14">
+        <v>156</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c t="s" r="G50" s="15">
+        <v>157</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c t="s" r="K50" s="17">
+        <v>158</v>
+      </c>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="222">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2694,10 +2739,15 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="K50:Q50"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -479,7 +479,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 6:56 PM</t>
+    <t>Friday, 1 August, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -206,9 +206,6 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>2:4</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
     <t>67.3200</t>
   </si>
   <si>
@@ -479,7 +479,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:02 PM</t>
+    <t>Friday, 1 August, 2025 7:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1582,7 +1582,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,11 +1592,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1608,14 +1608,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1625,14 +1625,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>70</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>71</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>72</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1658,11 +1658,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>28</v>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1691,11 +1691,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>28</v>
@@ -1707,7 +1707,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1720,15 +1720,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>28</v>
@@ -1740,7 +1740,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1757,11 +1757,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1823,11 +1823,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>28</v>
@@ -1839,14 +1839,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,11 +1856,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1889,11 +1889,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>28</v>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1922,11 +1922,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>28</v>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1951,15 +1951,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1988,11 +1988,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2004,14 +2004,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,11 +2021,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2037,14 +2037,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2054,11 +2054,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>28</v>
@@ -2103,14 +2103,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,14 +2120,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>122</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2153,11 +2153,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>28</v>
@@ -2169,14 +2169,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2186,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2281,7 +2281,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2314,7 +2314,7 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
@@ -2347,7 +2347,7 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2380,7 +2380,7 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2413,7 +2413,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2446,11 +2446,11 @@
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2479,15 +2479,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>28</v>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
     <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
   </si>
   <si>
@@ -143,6 +155,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -227,6 +248,18 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -239,12 +272,6 @@
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
@@ -344,9 +371,6 @@
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>51.00</t>
   </si>
   <si>
@@ -362,6 +386,18 @@
     <t>98.0000</t>
   </si>
   <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
     <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
   </si>
   <si>
@@ -398,13 +434,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8463:0</t>
+    <t>8462:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>4.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -479,7 +515,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:14 PM</t>
+    <t>Friday, 1 August, 2025 7:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1153,7 +1189,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -1163,11 +1199,11 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
         <v>16</v>
@@ -1179,14 +1215,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1236,7 +1272,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1245,14 +1281,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1262,14 +1298,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>31</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1285,7 +1321,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1295,14 +1331,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1311,14 +1347,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1328,14 +1364,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1351,7 +1387,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1361,14 +1397,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1384,7 +1420,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1394,14 +1430,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1410,14 +1446,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1434,7 +1470,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1450,7 +1486,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1500,7 +1536,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1516,7 +1552,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1526,14 +1562,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1542,14 +1578,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1559,14 +1595,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1575,14 +1611,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1592,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1632,7 +1668,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1641,14 +1677,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1658,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1674,14 +1710,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1698,7 +1734,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1707,31 +1743,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1740,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1757,14 +1793,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1773,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1790,14 +1826,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1806,20 +1842,20 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -1830,7 +1866,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1846,7 +1882,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1856,11 +1892,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1872,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1889,14 +1925,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1905,14 +1941,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1922,14 +1958,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1945,21 +1981,21 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1971,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1988,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2004,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2021,14 +2057,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2037,28 +2073,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2070,14 +2106,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2087,14 +2123,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2103,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2120,14 +2156,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2136,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2153,14 +2189,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2169,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2186,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>111</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2202,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2219,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2235,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2252,14 +2288,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>12</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2268,31 +2304,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2301,31 +2337,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2334,31 +2370,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>55</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2367,28 +2403,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2400,20 +2436,20 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2424,7 +2460,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2440,24 +2476,24 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>28</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2466,66 +2502,198 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
-      <c r="P49" s="13">
-        <v>2063.7550000000001</v>
-      </c>
-      <c r="Q49" s="13"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c t="s" r="A50" s="14">
-        <v>156</v>
-      </c>
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c t="s" r="G50" s="15">
-        <v>157</v>
-      </c>
-      <c r="H50" s="15"/>
-      <c r="I50" s="15"/>
-      <c r="J50" s="16"/>
-      <c t="s" r="K50" s="17">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>158</v>
       </c>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>62</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>88</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>159</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>161</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>29</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>88</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>162</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>164</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>55</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>88</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>72</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>166</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>167</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>88</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>135</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2179.2550000000001</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>168</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>169</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>170</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="222">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2744,10 +2912,30 @@
     <mergeCell ref="H48:K48"/>
     <mergeCell ref="L48:M48"/>
     <mergeCell ref="N48:O48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="K50:Q50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:17 PM</t>
+    <t>Friday, 1 August, 2025 7:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>56.0000</t>
   </si>
   <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -215,126 +227,120 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>1:1</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
     <t>48.0000</t>
   </si>
   <si>
@@ -470,19 +476,13 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t>3.00</t>
-  </si>
-  <si>
-    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -1618,7 +1618,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1628,14 +1628,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1644,14 +1644,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1661,14 +1661,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1684,7 +1684,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1694,14 +1694,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>72</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1717,7 +1717,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1727,14 +1727,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>78</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1743,14 +1743,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1760,14 +1760,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1776,14 +1776,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1793,11 +1793,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>32</v>
@@ -1809,14 +1809,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,11 +1826,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>32</v>
@@ -1849,21 +1849,21 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -1875,31 +1875,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1908,14 +1908,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,11 +1925,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -1958,14 +1958,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +1974,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +1991,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2007,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2024,14 +2024,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2040,14 +2040,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2073,31 +2073,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,28 +2106,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2139,14 +2139,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2172,14 +2172,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2189,11 +2189,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2205,14 +2205,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2222,14 +2222,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2238,14 +2238,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,14 +2255,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,14 +2271,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2288,14 +2288,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2304,14 +2304,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>55</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2321,14 +2321,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2337,14 +2337,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,14 +2354,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,14 +2370,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,14 +2387,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>12</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,14 +2403,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2420,11 +2420,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>12</v>
@@ -2436,31 +2436,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,31 +2469,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>154</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2515,18 +2515,18 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>157</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>62</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,31 +2535,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>12</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,31 +2568,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2601,28 +2601,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>72</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2634,66 +2634,99 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2179.2550000000001</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>166</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>167</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>89</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>137</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q53" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="P54" s="13">
+        <v>2208.0149999999999</v>
+      </c>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" ht="16.5" customHeight="1">
+      <c t="s" r="A55" s="14">
         <v>168</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c t="s" r="G55" s="15">
         <v>169</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c t="s" r="K55" s="17">
         <v>170</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="247">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2932,10 +2965,15 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="K55:Q55"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -221,7 +221,7 @@
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
-    <t>44.0000</t>
+    <t>88.0000</t>
   </si>
   <si>
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
@@ -515,7 +515,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:18 PM</t>
+    <t>Friday, 1 August, 2025 7:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1651,7 +1651,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1668,7 +1668,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2696,7 +2696,7 @@
     </row>
     <row r="54" ht="25.5" customHeight="1">
       <c r="P54" s="13">
-        <v>2208.0149999999999</v>
+        <v>2252.0149999999999</v>
       </c>
       <c r="Q54" s="13"/>
     </row>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -515,7 +515,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:34 PM</t>
+    <t>Friday, 1 August, 2025 7:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -47,180 +47,183 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>9.1200</t>
+  </si>
+  <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>-48.5100</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
     <t>2:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>3:17</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
-    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>1:0</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRONCHONEER 30 TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>-48.5100</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
     <t>88.0000</t>
   </si>
   <si>
@@ -230,9 +233,6 @@
     <t>23.7600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -263,6 +263,18 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -272,6 +284,15 @@
     <t>99.0000</t>
   </si>
   <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
     <t>EXTRAUMA DNA CREAM 25 GM</t>
   </si>
   <si>
@@ -428,6 +449,9 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -452,9 +476,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -485,6 +506,9 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -500,9 +524,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم فاتيكا 190 مل</t>
   </si>
   <si>
@@ -515,7 +536,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:42 PM</t>
+    <t>Friday, 1 August, 2025 7:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1206,7 +1227,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1215,14 +1236,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1232,14 +1253,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1248,14 +1269,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1272,7 +1293,7 @@
         <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1387,7 +1408,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1486,7 +1507,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1503,7 +1524,7 @@
         <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1536,7 +1557,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1569,7 +1590,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1635,7 +1656,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1651,7 +1672,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1665,10 +1686,10 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
         <v>70</v>
-      </c>
-      <c t="s" r="Q22" s="12">
-        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1677,14 +1698,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1698,10 +1719,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1734,7 +1755,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1767,7 +1788,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1816,7 +1837,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1826,11 +1847,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>32</v>
@@ -1842,14 +1863,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1859,11 +1880,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>32</v>
@@ -1875,28 +1896,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1908,14 +1929,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1925,14 +1946,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1948,24 +1969,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1974,14 +1995,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1991,14 +2012,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2007,14 +2028,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2031,7 +2052,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2047,7 +2068,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2090,14 +2111,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2106,7 +2127,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2119,18 +2140,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2139,14 +2160,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2156,14 +2177,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2172,20 +2193,20 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>29</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2196,7 +2217,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2212,7 +2233,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2229,7 +2250,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2245,7 +2266,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2255,14 +2276,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2271,14 +2292,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>81</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2295,7 +2316,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2311,7 +2332,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2321,14 +2342,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>135</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2337,14 +2358,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>55</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2354,14 +2375,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2370,14 +2391,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2387,14 +2408,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>81</v>
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2403,14 +2424,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2427,7 +2448,7 @@
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2443,7 +2464,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2453,14 +2474,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2469,31 +2490,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2502,31 +2523,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>151</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>155</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2535,31 +2556,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>89</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>104</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2568,20 +2589,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2592,7 +2613,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2614,18 +2635,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2634,31 +2655,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2674,59 +2695,158 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>169</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>29</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>96</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>170</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="P54" s="13">
-        <v>2252.0149999999999</v>
-      </c>
-      <c r="Q54" s="13"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="14">
-        <v>168</v>
-      </c>
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c t="s" r="G55" s="15">
-        <v>169</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-      <c r="J55" s="16"/>
-      <c t="s" r="K55" s="17">
-        <v>170</v>
-      </c>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>171</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>55</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>96</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>75</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>173</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>174</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>96</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>144</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2440.7249999999999</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
+        <v>175</v>
+      </c>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
+        <v>176</v>
+      </c>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>177</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="247">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2970,10 +3090,25 @@
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
     <mergeCell ref="N53:O53"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="K55:Q55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -482,6 +482,15 @@
     <t>192.0000</t>
   </si>
   <si>
+    <t>بيبي جوي رقم 4</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>350.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
@@ -536,7 +545,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:43 PM</t>
+    <t>Friday, 1 August, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2596,7 +2605,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>158</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2606,11 +2615,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -2622,14 +2631,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2639,14 +2648,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>36</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>162</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2655,7 +2664,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2672,14 +2681,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>165</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>85</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2695,7 +2704,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2712,7 +2721,7 @@
         <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2728,7 +2737,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2742,10 +2751,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2754,14 +2763,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2771,11 +2780,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>32</v>
@@ -2787,14 +2796,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2804,49 +2813,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>145</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2440.7249999999999</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>175</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>176</v>
       </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
         <v>177</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>96</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>144</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2790.7249999999999</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>178</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>179</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>180</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3105,10 +3147,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -525,6 +525,15 @@
   </si>
   <si>
     <t>14.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
@@ -2770,7 +2779,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2784,7 +2793,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>32</v>
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2813,11 +2822,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>177</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2846,49 +2855,82 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2790.7249999999999</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
-        <v>178</v>
-      </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
         <v>179</v>
       </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
         <v>180</v>
       </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>96</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>144</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>2830.7249999999999</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>181</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>182</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>183</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3152,10 +3194,15 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -242,6 +242,15 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -335,6 +344,12 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -398,12 +413,6 @@
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -536,6 +545,12 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -554,7 +569,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 7:46 PM</t>
+    <t>Friday, 1 August, 2025 8:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1789,7 +1804,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1806,7 +1821,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1822,7 +1837,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1865,11 +1880,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>32</v>
@@ -1881,14 +1896,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1921,7 +1936,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1954,7 +1969,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1964,11 +1979,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -1980,28 +1995,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2013,20 +2028,20 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2037,7 +2052,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2053,7 +2068,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2103,7 +2118,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2119,7 +2134,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2129,14 +2144,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2145,14 +2160,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2162,11 +2177,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>32</v>
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2195,14 +2210,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2211,7 +2226,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2224,18 +2239,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2277,28 +2292,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>99</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2327,11 +2342,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2360,14 +2375,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2376,14 +2391,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>84</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2393,11 +2408,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2426,14 +2441,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>142</v>
+        <v>32</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2442,14 +2457,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>32</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>81</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>152</v>
+        <v>89</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2607,31 +2622,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2640,31 +2655,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>96</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2673,7 +2688,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2686,18 +2701,18 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>165</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2706,31 +2721,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>85</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2739,31 +2754,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>70</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2772,31 +2787,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>29</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>88</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2805,31 +2820,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2838,28 +2853,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>75</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -2871,66 +2886,165 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q58" s="12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>180</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>29</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>99</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>181</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
+        <v>171</v>
+      </c>
+      <c t="s" r="Q59" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>2830.7249999999999</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
-        <v>181</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>182</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>55</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>99</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>75</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
         <v>183</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c t="s" r="Q60" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>184</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>185</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>99</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>147</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>148</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2903.5549999999998</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>186</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>187</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>188</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3199,10 +3313,25 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>11.8800</t>
   </si>
   <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -251,6 +260,15 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -344,6 +362,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -374,40 +401,37 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
     <t>2:1</t>
   </si>
   <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>23.0000</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
@@ -569,7 +593,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:04 PM</t>
+    <t>Friday, 1 August, 2025 8:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1705,7 +1729,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1715,14 +1739,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1738,7 +1762,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1748,14 +1772,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>74</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>73</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1764,14 +1788,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1781,14 +1805,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1804,7 +1828,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1837,7 +1861,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1854,7 +1878,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1870,7 +1894,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1880,14 +1904,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1896,14 +1920,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1913,14 +1937,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1929,14 +1953,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1946,11 +1970,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1962,14 +1986,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2002,7 +2026,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2012,11 +2036,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2028,7 +2052,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2041,15 +2065,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2061,14 +2085,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2078,14 +2102,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2094,20 +2118,20 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -2118,7 +2142,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2134,7 +2158,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2151,7 +2175,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2167,7 +2191,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2177,14 +2201,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>67</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2193,14 +2217,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2217,7 +2241,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2239,7 +2263,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2266,7 +2290,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2276,11 +2300,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2292,20 +2316,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>29</v>
+        <v>123</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2332,7 +2356,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2349,7 +2373,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2365,7 +2389,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2375,14 +2399,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>87</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2391,28 +2415,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>78</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2431,7 +2455,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2448,7 +2472,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2481,7 +2505,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2497,7 +2521,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>90</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2507,14 +2531,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2523,14 +2547,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2540,11 +2564,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2556,14 +2580,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2573,14 +2597,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2589,14 +2613,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2606,14 +2630,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2622,14 +2646,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>55</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2646,7 +2670,7 @@
         <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2662,7 +2686,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2672,14 +2696,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2688,31 +2712,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>29</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2721,31 +2745,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2754,31 +2778,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>168</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2787,7 +2811,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2800,18 +2824,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2820,20 +2844,20 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2844,7 +2868,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>70</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2860,24 +2884,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2886,7 +2910,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2899,18 +2923,18 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>70</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2926,13 +2950,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -2940,10 +2964,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2952,28 +2976,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -2985,66 +3009,165 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>147</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q61" s="12">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>188</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>29</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>105</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>189</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>32</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2903.5549999999998</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>186</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>187</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>188</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>190</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>55</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>105</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>78</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>192</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>193</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>105</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>155</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3118.1849999999999</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>194</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>195</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>196</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3328,10 +3451,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -209,69 +209,75 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>6:2</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>11.8800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
     <t>48.00</t>
   </si>
   <si>
@@ -470,9 +476,6 @@
     <t>165.0000</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -488,9 +491,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
     <t>67.3200</t>
   </si>
   <si>
@@ -548,37 +548,40 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
     <t>15.0000</t>
   </si>
   <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
+    <t>كريم ONE للبشره الحساسه</t>
   </si>
   <si>
     <t>كريم فاتيكا 190 مل</t>
@@ -1713,7 +1716,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1795,7 +1798,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1812,7 +1815,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1821,7 +1824,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1838,11 +1841,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1854,7 +1857,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1871,11 +1874,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1887,7 +1890,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1904,11 +1907,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1920,14 +1923,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1937,11 +1940,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1953,14 +1956,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1970,11 +1973,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>32</v>
@@ -1986,14 +1989,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2003,11 +2006,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>32</v>
@@ -2019,7 +2022,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2036,11 +2039,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>32</v>
@@ -2052,7 +2055,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2069,11 +2072,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>32</v>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2102,11 +2105,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>32</v>
@@ -2118,7 +2121,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2131,15 +2134,15 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>32</v>
@@ -2151,7 +2154,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2168,11 +2171,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2184,7 +2187,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2201,11 +2204,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2217,7 +2220,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2234,11 +2237,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>32</v>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2263,15 +2266,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>32</v>
@@ -2283,7 +2286,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2304,7 +2307,7 @@
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>32</v>
@@ -2316,14 +2319,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2333,11 +2336,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2349,7 +2352,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2366,11 +2369,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>32</v>
@@ -2382,7 +2385,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2399,14 +2402,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2415,7 +2418,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2428,15 +2431,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2448,7 +2451,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2465,11 +2468,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2481,14 +2484,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2498,11 +2501,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2514,14 +2517,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2531,11 +2534,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2547,7 +2550,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2564,11 +2567,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>32</v>
@@ -2580,14 +2583,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2597,11 +2600,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2613,14 +2616,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2630,14 +2633,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>153</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2646,7 +2649,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2663,11 +2666,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>32</v>
@@ -2679,7 +2682,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2696,11 +2699,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2712,14 +2715,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2729,14 +2732,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2785,7 +2788,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2824,7 +2827,7 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2857,7 +2860,7 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2890,7 +2893,7 @@
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2923,7 +2926,7 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -2931,10 +2934,10 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>94</v>
+        <v>34</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2943,7 +2946,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2956,15 +2959,15 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>73</v>
@@ -2976,7 +2979,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2989,15 +2992,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>32</v>
@@ -3009,7 +3012,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3022,11 +3025,11 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
@@ -3042,7 +3045,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3055,15 +3058,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>32</v>
@@ -3082,21 +3085,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3108,66 +3111,99 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>55</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>155</v>
+        <v>79</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3118.1849999999999</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
         <v>194</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>107</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>156</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="P66" s="13">
+        <v>3172.9450000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
         <v>195</v>
       </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
         <v>196</v>
       </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
+        <v>197</v>
+      </c>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3466,10 +3502,15 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -596,7 +596,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:26 PM</t>
+    <t>Friday, 1 August, 2025 8:27 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -402,6 +402,15 @@
   </si>
   <si>
     <t>126.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>300.00</t>
   </si>
   <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
@@ -2392,24 +2401,24 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2418,31 +2427,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2458,13 +2467,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2491,7 +2500,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2501,14 +2510,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2517,14 +2526,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2534,14 +2543,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2550,14 +2559,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2567,14 +2576,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2590,7 +2599,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>29</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2600,14 +2609,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2616,14 +2625,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2633,14 +2642,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2649,14 +2658,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2673,7 +2682,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>32</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2689,7 +2698,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2699,11 +2708,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>98</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>32</v>
@@ -2715,14 +2724,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2732,14 +2741,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2748,14 +2757,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2765,14 +2774,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>82</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2781,14 +2790,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2821,13 +2830,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -2838,7 +2847,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2854,7 +2863,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2864,11 +2873,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>32</v>
@@ -2880,14 +2889,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2897,14 +2906,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>176</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2913,7 +2922,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2930,14 +2939,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>34</v>
+        <v>179</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2946,14 +2955,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2963,14 +2972,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3003,7 +3012,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3019,7 +3028,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>179</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3033,10 +3042,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3045,7 +3054,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3062,14 +3071,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3085,7 +3094,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3095,11 +3104,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3111,14 +3120,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3128,11 +3137,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>32</v>
@@ -3144,14 +3153,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>194</v>
+        <v>55</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3161,49 +3170,82 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3172.9450000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
-        <v>195</v>
-      </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>196</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
         <v>197</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>107</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>159</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="P67" s="13">
+        <v>3184.9450000000002</v>
+      </c>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" ht="16.5" customHeight="1">
+      <c t="s" r="A68" s="14">
+        <v>198</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c t="s" r="G68" s="15">
+        <v>199</v>
+      </c>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c t="s" r="K68" s="17">
+        <v>200</v>
+      </c>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="312">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3507,10 +3549,15 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="K68:Q68"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -605,7 +605,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:27 PM</t>
+    <t>Friday, 1 August, 2025 8:28 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -485,6 +485,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -575,6 +584,18 @@
     <t>40.0000</t>
   </si>
   <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>قياس سكر</t>
   </si>
   <si>
@@ -582,12 +603,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
   </si>
   <si>
     <t>كريم ONE للبشره الحساسه</t>
@@ -2698,7 +2713,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2715,7 +2730,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2731,7 +2746,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2741,11 +2756,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>32</v>
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>66</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2863,13 +2878,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -2880,7 +2895,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2896,7 +2911,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>32</v>
@@ -2922,14 +2937,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2939,14 +2954,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>179</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2955,7 +2970,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -2972,14 +2987,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>34</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3005,14 +3020,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3028,7 +3043,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>179</v>
+        <v>62</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3045,7 +3060,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3061,7 +3076,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3075,10 +3090,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>29</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3137,14 +3152,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>93</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>94</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3170,11 +3185,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>32</v>
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>197</v>
+        <v>32</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3203,49 +3218,115 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
-      <c r="P67" s="13">
-        <v>3184.9450000000002</v>
-      </c>
-      <c r="Q67" s="13"/>
-    </row>
-    <row r="68" ht="16.5" customHeight="1">
-      <c t="s" r="A68" s="14">
-        <v>198</v>
-      </c>
-      <c r="B68" s="14"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c t="s" r="G68" s="15">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>199</v>
       </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="15"/>
-      <c r="J68" s="16"/>
-      <c t="s" r="K68" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>55</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>107</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>79</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
         <v>200</v>
       </c>
-      <c r="L68" s="17"/>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
-      <c r="O68" s="17"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="17"/>
+      <c t="s" r="Q67" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>201</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>202</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>107</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>162</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>163</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3222.9450000000002</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>203</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>204</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>205</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="312">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3554,10 +3635,20 @@
     <mergeCell ref="H66:K66"/>
     <mergeCell ref="L66:M66"/>
     <mergeCell ref="N66:O66"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -620,7 +620,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:28 PM</t>
+    <t>Friday, 1 August, 2025 8:29 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
+    <t>47.5200</t>
   </si>
   <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
@@ -485,6 +485,15 @@
     <t>165.0000</t>
   </si>
   <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>TRIACTIN 4MG 20 TAB</t>
   </si>
   <si>
@@ -530,9 +539,6 @@
     <t>96.00</t>
   </si>
   <si>
-    <t>192.0000</t>
-  </si>
-  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -620,7 +626,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:29 PM</t>
+    <t>Friday, 1 August, 2025 8:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1971,7 +1977,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2730,7 +2736,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2746,7 +2752,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2763,7 +2769,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2779,7 +2785,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2789,11 +2795,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>32</v>
@@ -2805,14 +2811,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2822,14 +2828,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>92</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2838,14 +2844,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2855,14 +2861,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2871,14 +2877,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2911,13 +2917,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -2925,10 +2931,10 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2937,14 +2943,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2954,11 +2960,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>32</v>
@@ -2970,14 +2976,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2987,14 +2993,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>182</v>
+        <v>32</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3020,14 +3026,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>36</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>34</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3043,7 +3049,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3057,10 +3063,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>73</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3069,14 +3075,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>182</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3086,14 +3092,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3102,14 +3108,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3119,11 +3125,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>32</v>
@@ -3135,14 +3141,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3152,14 +3158,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>73</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3185,14 +3191,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3201,14 +3207,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3218,11 +3224,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>32</v>
@@ -3234,14 +3240,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3251,11 +3257,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>32</v>
@@ -3274,7 +3280,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3284,49 +3290,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>32</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3222.9450000000002</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
         <v>203</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
         <v>204</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>107</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>165</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3430.7849999999999</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
         <v>205</v>
       </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>206</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>207</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3645,10 +3684,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -281,7 +281,7 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>31.6800</t>
   </si>
   <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
@@ -626,7 +626,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:30 PM</t>
+    <t>Friday, 1 August, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1977,7 +1977,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="70" ht="24.75" customHeight="1">
       <c r="P70" s="13">
-        <v>3430.7849999999999</v>
+        <v>3414.9450000000002</v>
       </c>
       <c r="Q70" s="13"/>
     </row>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -86,15 +86,6 @@
     <t>114.0000</t>
   </si>
   <si>
-    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>57.00</t>
-  </si>
-  <si>
-    <t>9.1200</t>
-  </si>
-  <si>
     <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
   </si>
   <si>
@@ -239,12 +230,6 @@
     <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
   </si>
   <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -473,18 +458,6 @@
     <t>28.2000</t>
   </si>
   <si>
-    <t>SACROFER 100MG/5ML 5 AMP FOR I.V. INJ.</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>275.00</t>
-  </si>
-  <si>
-    <t>165.0000</t>
-  </si>
-  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -548,66 +521,63 @@
     <t>350.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>70:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
   </si>
   <si>
     <t>20.0000</t>
   </si>
   <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -620,13 +590,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
-    <t>22:0</t>
-  </si>
-  <si>
-    <t>Friday, 1 August, 2025 8:31 PM</t>
+    <t>Friday, 1 August, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1366,7 +1330,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1376,14 +1340,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1392,14 +1356,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1409,14 +1373,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1425,14 +1389,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1449,7 +1413,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1465,7 +1429,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1482,7 +1446,7 @@
         <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1491,14 +1455,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1508,14 +1472,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1524,14 +1488,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1548,7 +1512,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1564,7 +1528,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1581,7 +1545,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1597,7 +1561,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1607,11 +1571,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1623,14 +1587,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1663,7 +1627,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1673,14 +1637,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1689,14 +1653,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1706,14 +1670,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1722,14 +1686,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1746,7 +1710,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1762,7 +1726,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1772,14 +1736,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1795,7 +1759,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1805,14 +1769,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1821,14 +1785,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1838,14 +1802,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1854,14 +1818,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1871,11 +1835,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1887,14 +1851,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1904,11 +1868,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1920,14 +1884,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1937,14 +1901,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1953,14 +1917,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1970,14 +1934,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1986,14 +1950,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2003,14 +1967,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2019,14 +1983,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2036,14 +2000,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2052,14 +2016,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2069,14 +2033,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2085,14 +2049,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2102,14 +2066,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2118,31 +2082,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2151,31 +2115,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2184,14 +2148,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2201,11 +2165,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -2217,14 +2181,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2234,14 +2198,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2250,31 +2214,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2283,31 +2247,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2316,14 +2280,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2333,14 +2297,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>67</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2349,14 +2313,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2366,14 +2330,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2382,31 +2346,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2415,31 +2379,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2448,31 +2412,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2481,28 +2445,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2514,14 +2478,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2531,14 +2495,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2547,14 +2511,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2564,14 +2528,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2580,14 +2544,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2597,14 +2561,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2613,14 +2577,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>29</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2630,14 +2594,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2646,14 +2610,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>29</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2663,14 +2627,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2679,14 +2643,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2696,14 +2660,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2712,14 +2676,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2729,14 +2693,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2745,14 +2709,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2762,14 +2726,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2778,14 +2742,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2795,14 +2759,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2811,14 +2775,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2828,14 +2792,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2844,14 +2808,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2861,14 +2825,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2877,31 +2841,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2910,31 +2874,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>73</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2943,31 +2907,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>32</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2976,31 +2940,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>59</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3009,31 +2973,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>29</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3042,31 +3006,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>29</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3075,31 +3039,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3108,31 +3072,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3141,31 +3105,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>29</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>88</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3174,198 +3138,66 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="A66" s="7">
-        <v>60</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c t="s" r="C66" s="8">
-        <v>199</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c t="s" r="H66" s="9">
-        <v>29</v>
-      </c>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
-      <c t="s" r="L66" s="10">
-        <v>107</v>
-      </c>
-      <c r="M66" s="10"/>
-      <c t="s" r="N66" s="8">
+      <c r="P66" s="13">
+        <v>3179.9450000000002</v>
+      </c>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" ht="16.5" customHeight="1">
+      <c t="s" r="A67" s="14">
+        <v>193</v>
+      </c>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c t="s" r="G67" s="15">
+        <v>194</v>
+      </c>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c t="s" r="K67" s="17">
         <v>195</v>
       </c>
-      <c r="O66" s="8"/>
-      <c t="s" r="P66" s="11">
-        <v>196</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="67" ht="25.5" customHeight="1">
-      <c r="A67" s="7">
-        <v>61</v>
-      </c>
-      <c r="B67" s="7"/>
-      <c t="s" r="C67" s="8">
-        <v>200</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c t="s" r="H67" s="9">
-        <v>32</v>
-      </c>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
-      <c t="s" r="L67" s="10">
-        <v>107</v>
-      </c>
-      <c r="M67" s="10"/>
-      <c t="s" r="N67" s="8">
-        <v>93</v>
-      </c>
-      <c r="O67" s="8"/>
-      <c t="s" r="P67" s="11">
-        <v>94</v>
-      </c>
-      <c t="s" r="Q67" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" ht="24.75" customHeight="1">
-      <c r="A68" s="7">
-        <v>62</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c t="s" r="C68" s="8">
-        <v>201</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c t="s" r="H68" s="9">
-        <v>55</v>
-      </c>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
-      <c t="s" r="L68" s="10">
-        <v>107</v>
-      </c>
-      <c r="M68" s="10"/>
-      <c t="s" r="N68" s="8">
-        <v>79</v>
-      </c>
-      <c r="O68" s="8"/>
-      <c t="s" r="P68" s="11">
-        <v>202</v>
-      </c>
-      <c t="s" r="Q68" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="A69" s="7">
-        <v>63</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c t="s" r="C69" s="8">
-        <v>203</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c t="s" r="H69" s="9">
-        <v>204</v>
-      </c>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
-      <c t="s" r="L69" s="10">
-        <v>107</v>
-      </c>
-      <c r="M69" s="10"/>
-      <c t="s" r="N69" s="8">
-        <v>165</v>
-      </c>
-      <c r="O69" s="8"/>
-      <c t="s" r="P69" s="11">
-        <v>166</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3414.9450000000002</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>205</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>206</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>207</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="17"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+      <c r="Q67" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="307">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3669,30 +3501,10 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="H66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="H67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:G68"/>
-    <mergeCell ref="H68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="H69:K69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="K67:Q67"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -590,7 +590,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:32 PM</t>
+    <t>Friday, 1 August, 2025 8:46 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>87.00</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -209,6 +221,15 @@
     <t>23.7600</t>
   </si>
   <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
@@ -266,9 +287,6 @@
     <t>48.00</t>
   </si>
   <si>
-    <t>31.6800</t>
-  </si>
-  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
@@ -281,6 +299,15 @@
     <t>28.0000</t>
   </si>
   <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
@@ -509,9 +536,6 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
-    <t>96.00</t>
-  </si>
-  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -536,9 +560,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -554,9 +575,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -566,18 +584,12 @@
     <t>30:0</t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
     <t>قياس سكر</t>
   </si>
   <si>
     <t>10.00</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -590,7 +602,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 8:46 PM</t>
+    <t>Friday, 1 August, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1297,7 +1309,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1307,14 +1319,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1323,7 +1335,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -1340,14 +1352,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1380,7 +1392,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1396,7 +1408,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1406,14 +1418,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1422,14 +1434,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1439,14 +1451,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1462,7 +1474,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1472,14 +1484,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>43</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>44</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1495,7 +1507,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1505,14 +1517,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1521,14 +1533,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1538,14 +1550,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1554,14 +1566,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1578,7 +1590,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1594,7 +1606,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1604,14 +1616,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1620,14 +1632,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1644,7 +1656,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1693,7 +1705,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1703,14 +1715,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1719,14 +1731,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1736,14 +1748,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1752,14 +1764,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1769,11 +1781,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1785,14 +1797,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1802,14 +1814,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1818,14 +1830,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1835,11 +1847,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1851,14 +1863,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1868,14 +1880,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1884,14 +1896,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1908,7 +1920,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1924,7 +1936,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1934,14 +1946,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1950,14 +1962,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1967,14 +1979,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1983,14 +1995,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2000,14 +2012,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2016,14 +2028,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2033,14 +2045,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2049,14 +2061,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2066,14 +2078,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2082,31 +2094,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2115,14 +2127,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2132,14 +2144,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2148,14 +2160,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2165,14 +2177,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2181,20 +2193,20 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2205,7 +2217,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2221,13 +2233,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2238,7 +2250,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2254,7 +2266,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2264,14 +2276,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>64</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2280,14 +2292,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2304,7 +2316,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2320,13 +2332,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2337,7 +2349,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2353,24 +2365,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2379,14 +2391,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2396,14 +2408,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2412,31 +2424,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2445,31 +2457,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2478,14 +2490,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2495,14 +2507,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2511,31 +2523,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2544,7 +2556,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2561,14 +2573,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2577,14 +2589,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2594,11 +2606,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2610,14 +2622,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2627,14 +2639,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2643,14 +2655,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2660,14 +2672,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2676,14 +2688,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2700,7 +2712,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2716,7 +2728,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2726,14 +2738,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2742,14 +2754,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2759,14 +2771,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2775,14 +2787,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>56</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2792,14 +2804,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2808,14 +2820,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2825,14 +2837,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2841,31 +2853,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>29</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2881,24 +2893,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>172</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2907,31 +2919,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2940,31 +2952,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2973,31 +2985,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>29</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3006,31 +3018,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>29</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3039,31 +3051,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3072,31 +3084,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>26</v>
+        <v>187</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3105,31 +3117,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3145,59 +3157,158 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
-      <c r="P66" s="13">
-        <v>3179.9450000000002</v>
-      </c>
-      <c r="Q66" s="13"/>
-    </row>
-    <row r="67" ht="16.5" customHeight="1">
-      <c t="s" r="A67" s="14">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
         <v>193</v>
       </c>
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c t="s" r="G67" s="15">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>31</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>111</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>14</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
         <v>194</v>
       </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="15"/>
-      <c r="J67" s="16"/>
-      <c t="s" r="K67" s="17">
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>16</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>111</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>94</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>95</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
         <v>195</v>
       </c>
-      <c r="L67" s="17"/>
-      <c r="M67" s="17"/>
-      <c r="N67" s="17"/>
-      <c r="O67" s="17"/>
-      <c r="P67" s="17"/>
-      <c r="Q67" s="17"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>56</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>111</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>81</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>3246.625</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>197</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>198</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>199</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="307">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3501,10 +3612,25 @@
     <mergeCell ref="H65:K65"/>
     <mergeCell ref="L65:M65"/>
     <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="A67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -602,7 +602,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:04 PM</t>
+    <t>Friday, 1 August, 2025 9:05 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -65,162 +65,177 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>86.1300</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
     <t>1:2</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>-48.5100</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
   </si>
   <si>
     <t>0:2</t>
   </si>
   <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>3:17</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRONCHONEER 30 TAB</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>-48.5100</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
     <t>DENSITIN 30 CAPS</t>
   </si>
   <si>
@@ -290,9 +305,6 @@
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>28.00</t>
   </si>
   <si>
@@ -440,6 +452,15 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
     <t>OSTEOCARE 30 TABS</t>
   </si>
   <si>
@@ -503,6 +524,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
@@ -536,6 +563,12 @@
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -545,13 +578,16 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>8:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -572,9 +608,6 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -602,7 +635,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:05 PM</t>
+    <t>Friday, 1 August, 2025 9:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1474,7 +1507,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1484,14 +1517,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1500,14 +1533,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1517,11 +1550,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1533,7 +1566,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1550,11 +1583,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1566,14 +1599,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1583,11 +1616,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>26</v>
@@ -1599,14 +1632,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1639,7 +1672,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1649,11 +1682,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>26</v>
@@ -1665,14 +1698,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1689,7 +1722,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1722,7 +1755,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1738,7 +1771,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1748,14 +1781,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1764,14 +1797,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1781,14 +1814,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1797,14 +1830,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1814,14 +1847,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1830,14 +1863,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1847,14 +1880,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1863,14 +1896,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1880,14 +1913,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1896,14 +1929,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1913,11 +1946,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -1929,14 +1962,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1946,11 +1979,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -1962,14 +1995,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1979,14 +2012,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1995,14 +2028,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2012,14 +2045,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2028,14 +2061,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2045,14 +2078,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2061,14 +2094,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2085,7 +2118,7 @@
         <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2101,7 +2134,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2111,11 +2144,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2127,14 +2160,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2144,11 +2177,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2160,14 +2193,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2177,11 +2210,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2193,28 +2226,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2233,24 +2266,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2259,14 +2292,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2276,11 +2309,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2292,7 +2325,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2309,14 +2342,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2325,28 +2358,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2358,28 +2391,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2391,14 +2424,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2408,14 +2441,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2431,7 +2464,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2441,14 +2474,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2457,20 +2490,20 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2478,10 +2511,10 @@
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2490,31 +2523,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2523,31 +2556,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2556,28 +2589,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2589,20 +2622,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2613,7 +2646,7 @@
         <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2629,7 +2662,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2639,11 +2672,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2655,14 +2688,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2672,14 +2705,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2688,14 +2721,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2705,11 +2738,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>89</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2728,7 +2761,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2761,7 +2794,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2771,11 +2804,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2787,14 +2820,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2804,11 +2837,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2820,14 +2853,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2837,14 +2870,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2853,14 +2886,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2870,14 +2903,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2886,14 +2919,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2903,14 +2936,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2919,14 +2952,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2936,14 +2969,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2952,31 +2985,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2985,31 +3018,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>180</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3018,31 +3051,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>15</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3051,31 +3084,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3091,17 +3124,17 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>187</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3124,24 +3157,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3163,18 +3196,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>77</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3196,18 +3229,18 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3216,31 +3249,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3249,66 +3282,231 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>192</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>3246.625</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>197</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>198</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>199</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>115</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>14</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>31</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>115</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>203</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>102</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>204</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>31</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>115</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>14</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>205</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>16</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>115</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>98</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>206</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>60</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>115</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>86</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>3544.0650000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>208</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>209</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>210</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3627,10 +3825,35 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -635,7 +635,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:16 PM</t>
+    <t>Friday, 1 August, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -473,13 +473,10 @@
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>92.00</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>69.0000</t>
   </si>
   <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
@@ -635,7 +632,16 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:21 PM</t>
+    <t>معجون اسنان كلوس اب وسط</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Friday, 1 August, 2025 9:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2695,7 +2701,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2705,14 +2711,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2721,7 +2727,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2754,7 +2760,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2771,11 +2777,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2804,11 +2810,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2820,7 +2826,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2837,11 +2843,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2853,7 +2859,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2870,11 +2876,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2886,7 +2892,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2907,7 +2913,7 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>67</v>
@@ -2919,7 +2925,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2936,11 +2942,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2952,7 +2958,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2985,7 +2991,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3006,7 +3012,7 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>18</v>
@@ -3018,14 +3024,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3035,11 +3041,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>82</v>
@@ -3051,7 +3057,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3072,7 +3078,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>82</v>
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3117,7 +3123,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3134,11 +3140,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3150,7 +3156,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3167,7 +3173,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3183,7 +3189,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3200,14 +3206,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>37</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3216,7 +3222,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3233,7 +3239,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3249,7 +3255,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3266,11 +3272,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>82</v>
@@ -3282,14 +3288,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3303,7 +3309,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3315,14 +3321,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3348,7 +3354,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3365,7 +3371,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3381,7 +3387,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3414,7 +3420,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3447,7 +3453,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3468,45 +3474,78 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3544.0650000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>207</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>35</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>115</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>208</v>
       </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
         <v>209</v>
       </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3602.0650000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
         <v>210</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>211</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>212</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3850,10 +3889,15 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -65,420 +65,432 @@
     <t>ALPHINTERN 30 F.C.TABS</t>
   </si>
   <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>143.5500</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
-    <t>86.1300</t>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>105.0000</t>
+  </si>
+  <si>
+    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>228.00</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>BETADERM 0.1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>BIVATRACIN 150MG POWDER SPRAY</t>
+  </si>
+  <si>
+    <t>83.00</t>
+  </si>
+  <si>
+    <t>83.0000</t>
+  </si>
+  <si>
+    <t>BRONCHONEER 30 TAB</t>
+  </si>
+  <si>
+    <t>147.00</t>
+  </si>
+  <si>
+    <t>-48.5100</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>BRUFEN 600MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
+    <t>32.6700</t>
+  </si>
+  <si>
+    <t>CALAMYL LOTION 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>49.0000</t>
+  </si>
+  <si>
+    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>74.0000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>82.50</t>
+  </si>
+  <si>
+    <t>27.2250</t>
+  </si>
+  <si>
+    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>23.7600</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>3:17</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>AVEROCOXIB 90 MG 20 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>102.0000</t>
-  </si>
-  <si>
-    <t>BETADERM 0.1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>18.00</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>BIVATRACIN 150MG POWDER SPRAY</t>
-  </si>
-  <si>
-    <t>83.00</t>
-  </si>
-  <si>
-    <t>83.0000</t>
-  </si>
-  <si>
-    <t>BRONCHONEER 30 TAB</t>
-  </si>
-  <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>147.00</t>
-  </si>
-  <si>
-    <t>-48.5100</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>CALAMYL LOTION 100 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>49.00</t>
-  </si>
-  <si>
-    <t>49.0000</t>
-  </si>
-  <si>
-    <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>CETAFEN PLUS 30 TAB.</t>
-  </si>
-  <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
-  </si>
-  <si>
-    <t>148.00</t>
-  </si>
-  <si>
-    <t>74.0000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>82.50</t>
-  </si>
-  <si>
-    <t>27.2250</t>
-  </si>
-  <si>
-    <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>56.0000</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>6:1</t>
-  </si>
-  <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.00</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>105.0000</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -641,7 +653,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:29 PM</t>
+    <t>Friday, 1 August, 2025 9:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1381,7 +1393,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1391,11 +1403,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>26</v>
@@ -1407,14 +1419,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1431,7 +1443,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1480,7 +1492,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1490,11 +1502,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1506,14 +1518,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1530,7 +1542,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1539,14 +1551,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1556,14 +1568,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1596,7 +1608,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1612,7 +1624,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1622,14 +1634,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1638,14 +1650,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1655,14 +1667,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1671,14 +1683,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1711,7 +1723,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1761,7 +1773,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1777,7 +1789,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1803,14 +1815,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1820,14 +1832,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1860,7 +1872,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1876,7 +1888,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1886,14 +1898,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1909,7 +1921,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1919,14 +1931,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1952,14 +1964,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1985,14 +1997,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2018,11 +2030,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2034,14 +2046,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2063,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2067,14 +2079,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2096,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2100,14 +2112,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2121,10 +2133,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2145,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,11 +2162,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2166,14 +2178,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2195,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2199,14 +2211,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2216,11 +2228,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2232,14 +2244,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2249,11 +2261,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2278,15 +2290,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2298,14 +2310,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2315,14 +2327,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,31 +2343,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2364,14 +2376,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2381,14 +2393,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2397,31 +2409,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2442,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,11 +2459,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2463,31 +2475,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2508,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,11 +2525,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2529,28 +2541,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2562,14 +2574,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2579,14 +2591,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,28 +2607,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2628,31 +2640,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2661,28 +2673,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -2694,31 +2706,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2727,14 +2739,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,11 +2756,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>89</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2760,14 +2772,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2777,14 +2789,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
+        <v>158</v>
+      </c>
+      <c t="s" r="Q52" s="12">
         <v>159</v>
-      </c>
-      <c t="s" r="Q52" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2800,7 +2812,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2822,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>26</v>
@@ -2826,14 +2838,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,11 +2855,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2859,14 +2871,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,11 +2888,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2892,14 +2904,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,14 +2921,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2925,14 +2937,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2942,14 +2954,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2958,14 +2970,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,14 +2987,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,7 +3010,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3020,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3036,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3053,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3069,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3074,14 +3086,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>82</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3090,31 +3102,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,31 +3135,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>115</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>82</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3156,31 +3168,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3189,31 +3201,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>37</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3229,13 +3241,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3243,10 +3255,10 @@
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3262,24 +3274,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>82</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3288,31 +3300,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>198</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3321,31 +3333,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3361,24 +3373,24 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>195</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>106</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>102</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3394,13 +3406,13 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3408,10 +3420,10 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3420,31 +3432,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>98</v>
+        <v>206</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3453,31 +3465,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3486,66 +3498,132 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>209</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3602.0650000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>209</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>67</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>118</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>91</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
         <v>210</v>
       </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
         <v>211</v>
       </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>39</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>118</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
         <v>212</v>
       </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="P77" s="13">
+        <v>3797.1550000000002</v>
+      </c>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" ht="16.5" customHeight="1">
+      <c t="s" r="A78" s="14">
+        <v>214</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c t="s" r="G78" s="15">
+        <v>215</v>
+      </c>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c t="s" r="K78" s="17">
+        <v>216</v>
+      </c>
+      <c r="L78" s="17"/>
+      <c r="M78" s="17"/>
+      <c r="N78" s="17"/>
+      <c r="O78" s="17"/>
+      <c r="P78" s="17"/>
+      <c r="Q78" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="362">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3894,10 +3972,20 @@
     <mergeCell ref="H74:K74"/>
     <mergeCell ref="L74:M74"/>
     <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="K78:Q78"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -587,6 +587,15 @@
     <t>350.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>70:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -644,6 +653,12 @@
     <t>65.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
@@ -653,7 +668,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:32 PM</t>
+    <t>Friday, 1 August, 2025 9:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3241,7 +3256,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>193</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3251,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3267,7 +3282,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3284,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>195</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3300,7 +3315,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>109</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3333,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3350,14 +3365,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>200</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>50</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3373,7 +3388,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>195</v>
+        <v>74</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3383,14 +3398,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3399,14 +3414,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3416,11 +3431,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>15</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3432,14 +3447,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3449,14 +3464,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>206</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3465,7 +3480,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3482,14 +3497,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>74</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3548,11 +3563,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3564,14 +3579,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3581,7 +3596,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>212</v>
+        <v>91</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3592,38 +3607,104 @@
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
-      <c r="P77" s="13">
-        <v>3797.1550000000002</v>
-      </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" ht="16.5" customHeight="1">
-      <c t="s" r="A78" s="14">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
         <v>214</v>
       </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c t="s" r="G78" s="15">
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
         <v>215</v>
       </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="16"/>
-      <c t="s" r="K78" s="17">
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>118</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>177</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
         <v>216</v>
       </c>
-      <c r="L78" s="17"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
-      <c r="O78" s="17"/>
-      <c r="P78" s="17"/>
-      <c r="Q78" s="17"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>39</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>118</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>217</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>218</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="P79" s="13">
+        <v>3841.1550000000002</v>
+      </c>
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" ht="16.5" customHeight="1">
+      <c t="s" r="A80" s="14">
+        <v>219</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c t="s" r="G80" s="15">
+        <v>220</v>
+      </c>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c t="s" r="K80" s="17">
+        <v>221</v>
+      </c>
+      <c r="L80" s="17"/>
+      <c r="M80" s="17"/>
+      <c r="N80" s="17"/>
+      <c r="O80" s="17"/>
+      <c r="P80" s="17"/>
+      <c r="Q80" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="362">
+  <mergeCells count="372">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3982,10 +4063,20 @@
     <mergeCell ref="H76:K76"/>
     <mergeCell ref="L76:M76"/>
     <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="K78:Q78"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="K80:Q80"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>12.5000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
   </si>
   <si>
@@ -89,15 +104,9 @@
     <t>14.3000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -266,9 +275,6 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
     <t>25.0000</t>
   </si>
   <si>
@@ -668,7 +674,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:33 PM</t>
+    <t>Friday, 1 August, 2025 9:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1441,7 +1447,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1474,7 +1480,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1484,14 +1490,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1500,14 +1506,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1517,11 +1523,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1533,14 +1539,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1573,7 +1579,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1590,7 +1596,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1599,14 +1605,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1616,14 +1622,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1632,14 +1638,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1649,14 +1655,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1665,14 +1671,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1705,7 +1711,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1722,7 +1728,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1738,7 +1744,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1771,7 +1777,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1781,11 +1787,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>26</v>
@@ -1797,14 +1803,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1837,7 +1843,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1847,14 +1853,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1863,14 +1869,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1880,14 +1886,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1896,14 +1902,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1920,7 +1926,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1936,7 +1942,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1953,7 +1959,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1969,7 +1975,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1979,14 +1985,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>68</v>
+        <v>24</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2002,7 +2008,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2012,14 +2018,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2028,14 +2034,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2045,14 +2051,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2061,14 +2067,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2078,11 +2084,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2094,14 +2100,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2111,11 +2117,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2127,14 +2133,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2144,14 +2150,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2160,14 +2166,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2181,10 +2187,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2193,14 +2199,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2210,14 +2216,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2226,14 +2232,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2243,14 +2249,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2259,14 +2265,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>111</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2276,7 +2282,7 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
@@ -2299,7 +2305,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2309,11 +2315,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2332,7 +2338,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2342,11 +2348,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2358,28 +2364,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2391,31 +2397,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2424,14 +2430,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2441,11 +2447,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2457,7 +2463,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2474,14 +2480,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2490,28 +2496,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2523,24 +2529,24 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2563,7 +2569,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2573,14 +2579,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>82</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2589,14 +2595,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2606,14 +2612,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2622,31 +2628,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2655,31 +2661,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2695,24 +2701,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2721,28 +2727,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2754,28 +2760,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>120</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2787,14 +2793,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2804,14 +2810,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>159</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2820,14 +2826,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2837,14 +2843,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>94</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2853,14 +2859,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2870,14 +2876,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2886,14 +2892,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2909,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,14 +2925,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2936,14 +2942,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2952,7 +2958,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2969,14 +2975,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2985,14 +2991,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,14 +3008,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>101</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3025,7 +3031,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3041,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,14 +3057,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,11 +3074,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3084,14 +3090,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,14 +3107,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3124,7 +3130,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>81</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3140,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,14 +3156,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>109</v>
+        <v>185</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3167,14 +3173,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,31 +3189,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>118</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3223,21 +3229,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3249,28 +3255,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3282,20 +3288,20 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>195</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3303,10 +3309,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>74</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3322,24 +3328,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>198</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3355,24 +3361,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>109</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3388,13 +3394,13 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3402,10 +3408,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>50</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3414,31 +3420,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3454,21 +3460,21 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>15</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3487,24 +3493,24 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3520,24 +3526,24 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>149</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>74</v>
+        <v>53</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3546,31 +3552,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>77</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3579,28 +3585,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>213</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3619,21 +3625,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>177</v>
+        <v>93</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3652,59 +3658,92 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
-      <c r="P79" s="13">
-        <v>3841.1550000000002</v>
-      </c>
-      <c r="Q79" s="13"/>
-    </row>
-    <row r="80" ht="16.5" customHeight="1">
-      <c t="s" r="A80" s="14">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>218</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>42</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>120</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
         <v>219</v>
       </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c t="s" r="G80" s="15">
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
         <v>220</v>
       </c>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="16"/>
-      <c t="s" r="K80" s="17">
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="P80" s="13">
+        <v>3853.6550000000002</v>
+      </c>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" ht="16.5" customHeight="1">
+      <c t="s" r="A81" s="14">
         <v>221</v>
       </c>
-      <c r="L80" s="17"/>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="17"/>
-      <c r="P80" s="17"/>
-      <c r="Q80" s="17"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c t="s" r="G81" s="15">
+        <v>222</v>
+      </c>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c t="s" r="K81" s="17">
+        <v>223</v>
+      </c>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+      <c r="O81" s="17"/>
+      <c r="P81" s="17"/>
+      <c r="Q81" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="372">
+  <mergeCells count="377">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4073,10 +4112,15 @@
     <mergeCell ref="H78:K78"/>
     <mergeCell ref="L78:M78"/>
     <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="G80:I80"/>
-    <mergeCell ref="K80:Q80"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="K81:Q81"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -254,312 +254,315 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>DRAMENEX 50MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>72.0000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FUNGICAN 150MG 2 CAPS.</t>
+  </si>
+  <si>
+    <t>47.00</t>
+  </si>
+  <si>
+    <t>47.0000</t>
+  </si>
+  <si>
+    <t>HUSH SACHET</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>KENACOMB TOPICAL CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MORALACT  TAB</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>39.0000</t>
+  </si>
+  <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>98.0000</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>564.00</t>
+  </si>
+  <si>
+    <t>28.2000</t>
+  </si>
+  <si>
+    <t>TAVANIC 500MG 5 TAB</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>TRIACTIN 4MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>TUSSKAN SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
     <t>6:1</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
-    <t>23.7600</t>
-  </si>
-  <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>DRAMENEX 50MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>72.0000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FUNGICAN 150MG 2 CAPS.</t>
-  </si>
-  <si>
-    <t>47.00</t>
-  </si>
-  <si>
-    <t>47.0000</t>
-  </si>
-  <si>
-    <t>HUSH SACHET</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>KENACOMB TOPICAL CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>36.0000</t>
-  </si>
-  <si>
-    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MORALACT  TAB</t>
-  </si>
-  <si>
-    <t>90.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
-  </si>
-  <si>
-    <t>78.00</t>
-  </si>
-  <si>
-    <t>39.0000</t>
-  </si>
-  <si>
-    <t>OSTEOCARE 30 TABS</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>PANADOL MIGRAINE 30 TABS</t>
-  </si>
-  <si>
-    <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>98.00</t>
-  </si>
-  <si>
-    <t>98.0000</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>564.00</t>
-  </si>
-  <si>
-    <t>28.2000</t>
-  </si>
-  <si>
-    <t>TAVANIC 500MG 5 TAB</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>TRIACTIN 4MG 20 TAB</t>
-  </si>
-  <si>
-    <t>46.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>TRIXOMASH 1 GM VIAL FOR I.M. INJ.</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>TUSSKAN SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
     <t>67.3200</t>
   </si>
   <si>
@@ -611,27 +614,33 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -674,7 +683,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:34 PM</t>
+    <t>Friday, 1 August, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1926,7 +1935,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1935,7 +1944,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1952,11 +1961,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -1968,7 +1977,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1989,7 +1998,7 @@
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -2001,7 +2010,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2022,7 +2031,7 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>53</v>
@@ -2034,14 +2043,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2058,7 +2067,7 @@
         <v>83</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2067,7 +2076,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2084,11 +2093,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2100,7 +2109,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2117,11 +2126,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2133,7 +2142,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2150,11 +2159,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>26</v>
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2183,11 +2192,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>18</v>
@@ -2199,7 +2208,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2216,11 +2225,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2232,7 +2241,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2249,11 +2258,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>26</v>
@@ -2265,14 +2274,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2282,11 +2291,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2298,7 +2307,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2319,7 +2328,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2331,7 +2340,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2348,7 +2357,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2364,7 +2373,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2381,11 +2390,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2397,7 +2406,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2410,15 +2419,15 @@
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2430,7 +2439,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2447,11 +2456,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2463,7 +2472,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2480,11 +2489,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>26</v>
@@ -2496,7 +2505,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2513,11 +2522,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2529,7 +2538,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2542,15 +2551,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2562,7 +2571,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2583,7 +2592,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2595,14 +2604,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2612,11 +2621,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>26</v>
@@ -2628,7 +2637,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2645,11 +2654,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2661,28 +2670,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>26</v>
@@ -2694,7 +2703,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2711,11 +2720,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>23</v>
@@ -2727,7 +2736,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2740,15 +2749,15 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2760,7 +2769,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2773,15 +2782,15 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2793,7 +2802,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2810,11 +2819,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2826,7 +2835,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2843,14 +2852,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>161</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3041,7 +3050,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3107,11 +3116,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3130,7 +3139,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>81</v>
+        <v>183</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>23</v>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3173,11 +3182,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>53</v>
@@ -3189,14 +3198,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3206,7 +3215,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3222,20 +3231,20 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
@@ -3255,7 +3264,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3268,15 +3277,15 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3288,28 +3297,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3321,7 +3330,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3334,15 +3343,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>77</v>
@@ -3354,7 +3363,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3367,18 +3376,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>200</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3400,7 +3409,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3408,10 +3417,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>111</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3420,7 +3429,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3433,15 +3442,15 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>53</v>
@@ -3453,28 +3462,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3486,20 +3495,20 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
@@ -3519,7 +3528,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3532,15 +3541,15 @@
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>53</v>
@@ -3552,7 +3561,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3565,7 +3574,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3573,7 +3582,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>77</v>
@@ -3585,7 +3594,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3598,15 +3607,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3618,7 +3627,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3631,15 +3640,15 @@
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3651,20 +3660,20 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3684,7 +3693,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3697,15 +3706,15 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3713,13 +3722,13 @@
     </row>
     <row r="80" ht="24.75" customHeight="1">
       <c r="P80" s="13">
-        <v>3853.6550000000002</v>
+        <v>3885.415</v>
       </c>
       <c r="Q80" s="13"/>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c t="s" r="A81" s="14">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -3727,13 +3736,13 @@
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
       <c t="s" r="G81" s="15">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="16"/>
       <c t="s" r="K81" s="17">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L81" s="17"/>
       <c r="M81" s="17"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -218,6 +218,15 @@
     <t>74.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 642.9MG/5ML PD. FOR ORAL SUSP. 70ML</t>
+  </si>
+  <si>
+    <t>89.00</t>
+  </si>
+  <si>
+    <t>89.0000</t>
+  </si>
+  <si>
     <t>CLEAREST 14 CAPS</t>
   </si>
   <si>
@@ -569,13 +578,13 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8462:0</t>
+    <t>8460:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>4.0000</t>
+    <t>8.0000</t>
   </si>
   <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
@@ -683,7 +692,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:42 PM</t>
+    <t>Friday, 1 August, 2025 9:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1819,7 +1828,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1829,14 +1838,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1845,14 +1854,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1885,7 +1894,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1895,14 +1904,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1911,14 +1920,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1928,14 +1937,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1944,14 +1953,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1961,14 +1970,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>87</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1984,7 +1993,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1994,14 +2003,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2010,14 +2019,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2027,14 +2036,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2043,14 +2052,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2060,14 +2069,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2076,14 +2085,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2093,14 +2102,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2116,7 +2125,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2149,7 +2158,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2182,7 +2191,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2192,14 +2201,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2215,7 +2224,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2225,14 +2234,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2265,7 +2274,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2281,7 +2290,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2291,14 +2300,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2307,14 +2316,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2324,11 +2333,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2340,14 +2349,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2357,11 +2366,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>54</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2373,14 +2382,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2390,11 +2399,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2406,28 +2415,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2439,20 +2448,20 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2463,7 +2472,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2479,7 +2488,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2529,7 +2538,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2545,13 +2554,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2578,21 +2587,21 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2604,14 +2613,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2621,14 +2630,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>85</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2637,14 +2646,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2661,7 +2670,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2677,24 +2686,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2710,24 +2719,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>104</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2736,31 +2745,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2776,13 +2785,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2809,13 +2818,13 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
@@ -2842,7 +2851,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2859,7 +2868,7 @@
         <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2875,7 +2884,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2885,14 +2894,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2901,14 +2910,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2918,14 +2927,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2941,7 +2950,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2951,14 +2960,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2967,14 +2976,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2991,7 +3000,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3024,7 +3033,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3040,7 +3049,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3050,14 +3059,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3066,14 +3075,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3083,14 +3092,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3106,7 +3115,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3116,11 +3125,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3132,14 +3141,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3149,14 +3158,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3182,14 +3191,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3198,14 +3207,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3215,14 +3224,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>86</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3231,31 +3240,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>115</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3264,28 +3273,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>14</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3304,21 +3313,21 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>110</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3337,24 +3346,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>77</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3363,7 +3372,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3376,18 +3385,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3396,7 +3405,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3409,18 +3418,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3429,31 +3438,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>206</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>207</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3469,24 +3478,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>209</v>
+        <v>80</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>109</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3508,15 +3517,15 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>15</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3528,31 +3537,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3561,7 +3570,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3574,18 +3583,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3594,31 +3603,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3627,28 +3636,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>218</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3660,28 +3669,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>220</v>
+        <v>73</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>179</v>
+        <v>97</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3693,66 +3702,99 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
-      <c r="P80" s="13">
-        <v>3885.415</v>
-      </c>
-      <c r="Q80" s="13"/>
-    </row>
-    <row r="81" ht="16.5" customHeight="1">
-      <c t="s" r="A81" s="14">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
         <v>224</v>
       </c>
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c t="s" r="G81" s="15">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>42</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>124</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
         <v>225</v>
       </c>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
-      <c r="J81" s="16"/>
-      <c t="s" r="K81" s="17">
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
         <v>226</v>
       </c>
-      <c r="L81" s="17"/>
-      <c r="M81" s="17"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="17"/>
-      <c r="P81" s="17"/>
-      <c r="Q81" s="17"/>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="P81" s="13">
+        <v>3978.415</v>
+      </c>
+      <c r="Q81" s="13"/>
+    </row>
+    <row r="82" ht="16.5" customHeight="1">
+      <c t="s" r="A82" s="14">
+        <v>227</v>
+      </c>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c t="s" r="G82" s="15">
+        <v>228</v>
+      </c>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c t="s" r="K82" s="17">
+        <v>229</v>
+      </c>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="377">
+  <mergeCells count="382">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4126,10 +4168,15 @@
     <mergeCell ref="H79:K79"/>
     <mergeCell ref="L79:M79"/>
     <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="G81:I81"/>
-    <mergeCell ref="K81:Q81"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="K82:Q82"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -437,33 +437,33 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>3:1</t>
+    <t>2:4</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
+    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
     <t>12.0000</t>
   </si>
   <si>
-    <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -623,6 +623,9 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
     <t>سرنجات 5 سم</t>
   </si>
   <si>
@@ -692,7 +695,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:44 PM</t>
+    <t>Friday, 1 August, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2667,10 +2670,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2679,7 +2682,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2696,11 +2699,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2712,14 +2715,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2729,11 +2732,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>26</v>
@@ -3393,7 +3396,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>80</v>
@@ -3426,10 +3429,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>57</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3438,7 +3441,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3455,14 +3458,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3471,7 +3474,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3488,11 +3491,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>53</v>
@@ -3504,14 +3507,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3525,7 +3528,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3537,14 +3540,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3570,7 +3573,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3587,7 +3590,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3603,7 +3606,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3636,7 +3639,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3669,7 +3672,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3690,7 +3693,7 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3702,14 +3705,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3735,7 +3738,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3752,11 +3755,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3764,13 +3767,13 @@
     </row>
     <row r="81" ht="25.5" customHeight="1">
       <c r="P81" s="13">
-        <v>3978.415</v>
+        <v>4006.415</v>
       </c>
       <c r="Q81" s="13"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c t="s" r="A82" s="14">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -3778,13 +3781,13 @@
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
       <c t="s" r="G82" s="15">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="16"/>
       <c t="s" r="K82" s="17">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L82" s="17"/>
       <c r="M82" s="17"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -134,6 +134,15 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>BEDREMINE 50 MG 30 EXT. REL.TABS.</t>
+  </si>
+  <si>
+    <t>153.00</t>
+  </si>
+  <si>
+    <t>153.0000</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -191,6 +200,18 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>CEFIXIME 100MG/5ML SUSP. 30 ML</t>
   </si>
   <si>
@@ -263,42 +284,45 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:3</t>
+    <t>5:2</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
     <t>35.6400</t>
   </si>
   <si>
     <t>0:3</t>
   </si>
   <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -326,6 +350,15 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -347,9 +380,6 @@
     <t>E-MOX 500MG 16 CAPS</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -506,6 +536,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
@@ -578,15 +620,12 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8460:0</t>
+    <t>8458:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -620,10 +659,13 @@
     <t>4.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>12:0</t>
+    <t>13:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -653,9 +695,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>40.0000</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -695,7 +734,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 9:52 PM</t>
+    <t>Friday, 1 August, 2025 10:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1567,7 +1606,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1577,11 +1616,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1593,14 +1632,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1633,7 +1672,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1650,7 +1689,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>51</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1659,14 +1698,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1676,14 +1715,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1692,14 +1731,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1709,14 +1748,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1725,14 +1764,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1765,7 +1804,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1775,14 +1814,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1791,14 +1830,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1808,14 +1847,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1824,14 +1863,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1841,14 +1880,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1914,7 +1953,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1947,7 +1986,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1963,7 +2002,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1973,14 +2012,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2006,14 +2045,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2055,14 +2094,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2072,14 +2111,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2088,14 +2127,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2105,14 +2144,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>85</v>
+        <v>24</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2121,14 +2160,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2138,14 +2177,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2154,14 +2193,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2171,14 +2210,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2187,14 +2226,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2204,11 +2243,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>26</v>
@@ -2220,14 +2259,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2237,14 +2276,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2253,14 +2292,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2270,14 +2309,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2286,14 +2325,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2303,14 +2342,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2336,14 +2375,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2352,14 +2391,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2369,11 +2408,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>54</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2418,14 +2457,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2435,11 +2474,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2451,28 +2490,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2484,14 +2523,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2501,14 +2540,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2517,7 +2556,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2534,14 +2573,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2557,21 +2596,21 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2583,31 +2622,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2616,14 +2655,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2633,14 +2672,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>85</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2649,14 +2688,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2666,14 +2705,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>87</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2682,7 +2721,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2695,15 +2734,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2715,31 +2754,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2755,7 +2794,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2765,14 +2804,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>23</v>
+        <v>103</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2781,7 +2820,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2794,18 +2833,18 @@
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2814,28 +2853,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -2847,14 +2886,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2864,14 +2903,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2880,31 +2919,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2913,28 +2952,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>26</v>
@@ -2946,14 +2985,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2963,14 +3002,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2979,14 +3018,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2996,14 +3035,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3012,31 +3051,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3045,14 +3084,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3062,11 +3101,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3078,14 +3117,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3095,14 +3134,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>80</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3111,14 +3150,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3128,14 +3167,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3144,14 +3183,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3161,11 +3200,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>116</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3177,14 +3216,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3194,14 +3233,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3210,14 +3249,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3227,14 +3266,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>118</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3243,14 +3282,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3260,14 +3299,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3276,28 +3315,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3309,31 +3348,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3342,31 +3381,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3375,31 +3414,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>124</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>202</v>
+        <v>95</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3408,31 +3447,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>204</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3441,7 +3480,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3454,18 +3493,18 @@
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3474,31 +3513,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>211</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3507,31 +3546,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>213</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>112</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3540,31 +3579,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3573,7 +3612,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3586,18 +3625,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>113</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>53</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3606,31 +3645,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3639,28 +3678,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>227</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3672,28 +3711,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>73</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>97</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>222</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3705,31 +3744,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>224</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>182</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>183</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3738,66 +3777,198 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>226</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>227</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
-      <c r="P81" s="13">
-        <v>4006.415</v>
-      </c>
-      <c r="Q81" s="13"/>
-    </row>
-    <row r="82" ht="16.5" customHeight="1">
-      <c t="s" r="A82" s="14">
-        <v>228</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c t="s" r="G82" s="15">
-        <v>229</v>
-      </c>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="16"/>
-      <c t="s" r="K82" s="17">
-        <v>230</v>
-      </c>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>233</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>16</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>134</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>120</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>234</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>80</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>134</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>105</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>236</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>237</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>134</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>196</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>238</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>45</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>134</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>239</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4321.2950000000001</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>241</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>242</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>243</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="382">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4176,10 +4347,30 @@
     <mergeCell ref="H80:K80"/>
     <mergeCell ref="L80:M80"/>
     <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G82:I82"/>
-    <mergeCell ref="K82:Q82"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -200,6 +200,15 @@
     <t>49.0000</t>
   </si>
   <si>
+    <t>CATAFAST 50 MG 9 SACHET</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>CEFEPIME 1 GM I.M/I.V VIAL</t>
   </si>
   <si>
@@ -308,6 +317,15 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
   </si>
   <si>
@@ -368,60 +386,78 @@
     <t>48.00</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
     <t>DRAMENEX 50MG 20 TABS.</t>
   </si>
   <si>
     <t>28.00</t>
   </si>
   <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>E-MOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>26.0000</t>
+  </si>
+  <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>EUCARBON 30 TAB</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>EXTRAUMA DNA CREAM 25 GM</t>
+  </si>
+  <si>
     <t>28.0000</t>
   </si>
   <si>
-    <t>E-MOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>5:0</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
-    <t>26.0000</t>
-  </si>
-  <si>
-    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>99.0000</t>
-  </si>
-  <si>
-    <t>EUCARBON 30 TAB</t>
-  </si>
-  <si>
-    <t>105.00</t>
-  </si>
-  <si>
-    <t>EXTRAUMA DNA CREAM 25 GM</t>
-  </si>
-  <si>
     <t>EZAPRIL-CO 20/12.5MG 30TABS</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>72.00</t>
-  </si>
-  <si>
     <t>72.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>3.8400</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -449,6 +485,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -572,6 +617,15 @@
     <t>28.2000</t>
   </si>
   <si>
+    <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>136.50</t>
+  </si>
+  <si>
+    <t>45.0450</t>
+  </si>
+  <si>
     <t>TAVANIC 500MG 5 TAB</t>
   </si>
   <si>
@@ -599,9 +653,6 @@
     <t>TUSSKAN SYRUP 100 ML</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
     <t>24.0000</t>
   </si>
   <si>
@@ -611,9 +662,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
     <t>67.3200</t>
   </si>
   <si>
@@ -626,6 +674,15 @@
     <t>2.00</t>
   </si>
   <si>
+    <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>26.5000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
   </si>
   <si>
@@ -665,7 +722,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>13:0</t>
+    <t>18:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -734,7 +791,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:04 PM</t>
+    <t>Friday, 1 August, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1804,7 +1861,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1814,14 +1871,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1830,14 +1887,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1870,7 +1927,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1887,7 +1944,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1903,7 +1960,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1936,7 +1993,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1953,7 +2010,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1969,7 +2026,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1979,14 +2036,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1995,14 +2052,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2035,7 +2092,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2045,14 +2102,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2061,14 +2118,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2078,14 +2135,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2094,14 +2151,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2118,7 +2175,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2134,7 +2191,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2144,14 +2201,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2160,14 +2217,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2177,14 +2234,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2193,7 +2250,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2210,14 +2267,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2226,14 +2283,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2243,14 +2300,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2266,7 +2323,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2276,14 +2333,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>108</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2299,7 +2356,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2332,7 +2389,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2349,7 +2406,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2365,7 +2422,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2375,14 +2432,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2398,7 +2455,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2431,7 +2488,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2441,14 +2498,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2457,14 +2514,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2474,14 +2531,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2490,14 +2547,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2507,14 +2564,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2530,7 +2587,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2540,14 +2597,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>33</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2563,7 +2620,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2573,11 +2630,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2589,28 +2646,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2622,14 +2679,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2639,14 +2696,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2672,14 +2729,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2688,28 +2745,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>64</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2721,20 +2778,20 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2745,7 +2802,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2761,7 +2818,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2771,14 +2828,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2787,14 +2844,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2808,10 +2865,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2820,14 +2877,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2837,11 +2894,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2853,24 +2910,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -2893,24 +2950,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2919,31 +2976,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2959,24 +3016,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2992,7 +3049,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3009,7 +3066,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3025,24 +3082,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>103</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3051,31 +3108,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>56</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3084,28 +3141,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3117,31 +3174,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3150,14 +3207,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3190,7 +3247,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3207,7 +3264,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3223,21 +3280,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>143</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3249,14 +3306,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3266,14 +3323,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3289,7 +3346,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3322,7 +3379,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3332,14 +3389,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3348,14 +3405,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3365,14 +3422,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3381,14 +3438,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3398,14 +3455,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>160</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3414,14 +3471,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>125</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3431,14 +3488,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3447,31 +3504,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>83</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3480,28 +3537,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>147</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3513,28 +3570,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>45</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>134</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3546,31 +3603,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>146</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3579,31 +3636,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>218</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3612,7 +3669,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3625,18 +3682,18 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>222</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3645,28 +3702,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>87</v>
+        <v>133</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>98</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>56</v>
@@ -3678,28 +3735,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3711,28 +3768,28 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3751,24 +3808,24 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3777,7 +3834,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3790,18 +3847,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>165</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3810,31 +3867,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3843,31 +3900,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3876,31 +3933,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>237</v>
+        <v>90</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>197</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3909,66 +3966,297 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>240</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4321.2950000000001</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>241</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
-        <v>242</v>
-      </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
-        <v>243</v>
-      </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>248</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>143</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>14</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>249</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>38</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>143</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>250</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>251</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>38</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>143</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>14</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>180</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>16</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>143</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>128</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>253</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
+        <v>83</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>143</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>111</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>254</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
+        <v>255</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>256</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>143</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>147</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>257</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>45</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>143</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>258</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="P92" s="13">
+        <v>4547.4399999999996</v>
+      </c>
+      <c r="Q92" s="13"/>
+    </row>
+    <row r="93" ht="16.5" customHeight="1">
+      <c t="s" r="A93" s="14">
+        <v>260</v>
+      </c>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c t="s" r="G93" s="15">
+        <v>261</v>
+      </c>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c t="s" r="K93" s="17">
+        <v>262</v>
+      </c>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="437">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4367,10 +4655,45 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="G93:I93"/>
+    <mergeCell ref="K93:Q93"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -191,13 +191,13 @@
     <t>CALAMYL LOTION 100 ML</t>
   </si>
   <si>
-    <t>10:0</t>
+    <t>9:0</t>
   </si>
   <si>
     <t>49.00</t>
   </si>
   <si>
-    <t>49.0000</t>
+    <t>98.0000</t>
   </si>
   <si>
     <t>CATAFAST 50 MG 9 SACHET</t>
@@ -602,9 +602,6 @@
     <t>98.00</t>
   </si>
   <si>
-    <t>98.0000</t>
-  </si>
-  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -749,9 +746,6 @@
     <t xml:space="preserve">فرش  فوكس عرض</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>فرشاة اطفال ريتش ديلي</t>
   </si>
   <si>
@@ -791,7 +785,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:31 PM</t>
+    <t>Friday, 1 August, 2025 10:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1845,7 +1839,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -3360,7 +3354,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3372,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3389,11 +3383,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3405,7 +3399,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3422,11 +3416,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3438,7 +3432,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3455,11 +3449,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3471,7 +3465,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3488,11 +3482,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3504,7 +3498,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3525,7 +3519,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>90</v>
@@ -3537,7 +3531,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3558,7 +3552,7 @@
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3570,7 +3564,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3603,7 +3597,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3624,7 +3618,7 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>23</v>
@@ -3636,14 +3630,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3653,7 +3647,7 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
@@ -3669,7 +3663,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3686,11 +3680,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3702,7 +3696,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3723,7 +3717,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>56</v>
@@ -3735,14 +3729,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3768,7 +3762,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3785,11 +3779,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3801,14 +3795,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3818,7 +3812,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3834,7 +3828,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3851,11 +3845,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>83</v>
@@ -3867,7 +3861,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3884,14 +3878,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3900,7 +3894,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3917,14 +3911,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>241</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3933,7 +3927,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3950,11 +3944,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>56</v>
@@ -3966,14 +3960,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>60</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3999,14 +3993,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4032,7 +4026,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4049,7 +4043,7 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
@@ -4065,7 +4059,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4098,7 +4092,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4131,7 +4125,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4152,7 +4146,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4164,14 +4158,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4185,7 +4179,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4197,7 +4191,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4214,11 +4208,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4226,13 +4220,13 @@
     </row>
     <row r="92" ht="25.5" customHeight="1">
       <c r="P92" s="13">
-        <v>4547.4399999999996</v>
+        <v>4596.4399999999996</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c t="s" r="A93" s="14">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
@@ -4240,13 +4234,13 @@
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
       <c t="s" r="G93" s="15">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="16"/>
       <c t="s" r="K93" s="17">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L93" s="17"/>
       <c r="M93" s="17"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -278,6 +278,15 @@
     <t>27.2250</t>
   </si>
   <si>
+    <t>DANSET 8MG/4ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>142.50</t>
+  </si>
+  <si>
+    <t>94.0500</t>
+  </si>
+  <si>
     <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
   </si>
   <si>
@@ -476,6 +485,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FUCIDIN 2% CREAM 20 GM</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>FUNGICAN 150MG 2 CAPS.</t>
   </si>
   <si>
@@ -503,6 +521,15 @@
     <t>130.0000</t>
   </si>
   <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>134.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -578,9 +605,6 @@
     <t>92.00</t>
   </si>
   <si>
-    <t>69.0000</t>
-  </si>
-  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -596,6 +620,15 @@
     <t>PANADOL MIGRAINE 30 TABS</t>
   </si>
   <si>
+    <t>PANTAZOL 40MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
     <t>PANTOMERICAN 40 MG 14 F.C. TABS.</t>
   </si>
   <si>
@@ -689,6 +722,12 @@
     <t>23:0</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>بيبي جوي رقم 4</t>
   </si>
   <si>
@@ -701,7 +740,7 @@
     <t xml:space="preserve">جهاز محلول </t>
   </si>
   <si>
-    <t>70:0</t>
+    <t>69:0</t>
   </si>
   <si>
     <t>20.00</t>
@@ -728,12 +767,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>21.0000</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -761,6 +794,9 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>كريم ONE للبشره الحساسه</t>
   </si>
   <si>
@@ -773,7 +809,7 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>22:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>معجون اسنان كلوس اب وسط</t>
@@ -785,7 +821,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:35 PM</t>
+    <t>Friday, 1 August, 2025 10:37 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2119,7 +2155,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2129,14 +2165,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2145,14 +2181,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2162,14 +2198,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2178,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2202,7 +2238,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2218,7 +2254,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2228,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2244,14 +2280,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2261,7 +2297,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2284,7 +2320,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2294,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2310,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2327,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>109</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2350,7 +2386,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2360,14 +2396,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q35" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q35" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2383,7 +2419,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2416,7 +2452,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2466,7 +2502,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2482,7 +2518,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2492,14 +2528,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2525,14 +2561,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2541,14 +2577,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2558,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2581,7 +2617,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2591,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2607,14 +2643,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2624,14 +2660,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2640,14 +2676,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,11 +2693,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2673,14 +2709,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2690,11 +2726,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>33</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2706,14 +2742,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2723,11 +2759,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2739,24 +2775,24 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2779,24 +2815,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2805,14 +2841,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2845,7 +2881,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2895,7 +2931,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2911,7 +2947,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,14 +2957,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2944,13 +2980,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2977,7 +3013,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2987,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,20 +3039,20 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3024,10 +3060,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3036,14 +3072,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3053,14 +3089,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3069,31 +3105,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>98</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3102,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>56</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3155,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>124</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3148,7 +3184,7 @@
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3159,7 +3195,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3175,21 +3211,21 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3201,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3218,14 +3254,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3241,13 +3277,13 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
@@ -3258,7 +3294,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3274,21 +3310,21 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3300,14 +3336,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3317,11 +3353,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3333,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3366,28 +3402,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3399,14 +3435,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,11 +3452,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>117</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3432,14 +3468,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3449,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3465,14 +3501,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3482,14 +3518,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3498,14 +3534,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>83</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3515,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3538,7 +3574,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3584,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3600,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,11 +3617,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>134</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>135</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3597,14 +3633,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,14 +3650,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3630,14 +3666,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>218</v>
+        <v>83</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,14 +3683,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>127</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>45</v>
+        <v>93</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,14 +3699,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3680,11 +3716,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>150</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3696,14 +3732,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,14 +3749,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>206</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3729,31 +3765,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>149</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3762,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>38</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,28 +3831,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>38</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3828,31 +3864,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>143</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3868,24 +3904,24 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>219</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>236</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3901,24 +3937,24 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3927,31 +3963,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3960,31 +3996,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>60</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>120</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4000,24 +4036,24 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>15</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,7 +4062,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4039,18 +4075,18 @@
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>248</v>
+        <v>230</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>56</v>
+        <v>249</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4059,7 +4095,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4072,18 +4108,18 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4092,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4125,28 +4161,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4158,28 +4194,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4191,66 +4227,231 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q91" s="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>38</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>146</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>14</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>262</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" ht="25.5" customHeight="1">
-      <c r="P92" s="13">
-        <v>4596.4399999999996</v>
-      </c>
-      <c r="Q92" s="13"/>
-    </row>
-    <row r="93" ht="16.5" customHeight="1">
-      <c t="s" r="A93" s="14">
-        <v>258</v>
-      </c>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c t="s" r="G93" s="15">
-        <v>259</v>
-      </c>
-      <c r="H93" s="15"/>
-      <c r="I93" s="15"/>
-      <c r="J93" s="16"/>
-      <c t="s" r="K93" s="17">
-        <v>260</v>
-      </c>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>146</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>131</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>263</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>83</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>146</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>114</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>264</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>265</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>266</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>146</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>150</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>267</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>45</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>146</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>268</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>269</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="P97" s="13">
+        <v>5147.3299999999999</v>
+      </c>
+      <c r="Q97" s="13"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="14">
+        <v>270</v>
+      </c>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c t="s" r="G98" s="15">
+        <v>271</v>
+      </c>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c t="s" r="K98" s="17">
+        <v>272</v>
+      </c>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="437">
+  <mergeCells count="462">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4684,10 +4885,35 @@
     <mergeCell ref="H91:K91"/>
     <mergeCell ref="L91:M91"/>
     <mergeCell ref="N91:O91"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="G93:I93"/>
-    <mergeCell ref="K93:Q93"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="G98:I98"/>
+    <mergeCell ref="K98:Q98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -428,6 +428,12 @@
     <t>26.0000</t>
   </si>
   <si>
+    <t>ERALONER 25 MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
   </si>
   <si>
@@ -572,6 +578,15 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -821,7 +836,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:37 PM</t>
+    <t>Friday, 1 August, 2025 10:43 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2716,7 +2731,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2726,14 +2741,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2749,7 +2764,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2759,11 +2774,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>57</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2782,7 +2797,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2792,11 +2807,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2815,21 +2830,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2841,31 +2856,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2874,14 +2889,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>56</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2891,11 +2906,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2907,14 +2922,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2924,11 +2939,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -2940,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2957,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2973,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2990,11 +3005,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3006,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3023,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3039,31 +3054,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3072,31 +3087,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3105,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3122,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3145,7 +3160,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3155,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>98</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3171,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3192,10 +3207,10 @@
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3204,31 +3219,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3237,31 +3252,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>56</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3277,24 +3292,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,31 +3318,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,28 +3351,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3369,31 +3384,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3409,21 +3424,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3435,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3452,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3475,24 +3490,24 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>117</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3541,7 +3556,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>38</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3551,14 +3566,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3567,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>214</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3617,14 +3632,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3633,14 +3648,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,11 +3665,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3666,14 +3681,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3706,7 +3721,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3716,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3765,14 +3780,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,14 +3797,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3798,14 +3813,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>45</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,14 +3830,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>137</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3838,7 +3853,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,14 +3863,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,14 +3879,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3881,14 +3896,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,28 +3912,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>38</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3930,31 +3945,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>136</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>104</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3963,28 +3978,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4009,18 +4024,18 @@
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>24</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4029,7 +4044,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4042,18 +4057,18 @@
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4062,31 +4077,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>249</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4108,7 +4123,7 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
@@ -4116,10 +4131,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>201</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4128,31 +4143,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
+        <v>176</v>
+      </c>
+      <c t="s" r="Q88" s="12">
         <v>254</v>
-      </c>
-      <c t="s" r="Q88" s="12">
-        <v>56</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4168,24 +4183,24 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>123</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,31 +4209,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>14</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>15</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4227,31 +4242,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>123</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,20 +4275,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4281,10 +4296,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>261</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4293,31 +4308,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,31 +4341,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4359,31 +4374,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>266</v>
+        <v>16</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4392,24 +4407,24 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>268</v>
+        <v>114</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4420,38 +4435,104 @@
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
-      <c r="P97" s="13">
-        <v>5147.3299999999999</v>
-      </c>
-      <c r="Q97" s="13"/>
-    </row>
-    <row r="98" ht="16.5" customHeight="1">
-      <c t="s" r="A98" s="14">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>270</v>
       </c>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c t="s" r="G98" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>271</v>
       </c>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="16"/>
-      <c t="s" r="K98" s="17">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>148</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>152</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>272</v>
       </c>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>45</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>148</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>273</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="P99" s="13">
+        <v>5239.3299999999999</v>
+      </c>
+      <c r="Q99" s="13"/>
+    </row>
+    <row r="100" ht="16.5" customHeight="1">
+      <c t="s" r="A100" s="14">
+        <v>275</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c t="s" r="G100" s="15">
+        <v>276</v>
+      </c>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c t="s" r="K100" s="17">
+        <v>277</v>
+      </c>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="462">
+  <mergeCells count="472">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4910,10 +4991,20 @@
     <mergeCell ref="H96:K96"/>
     <mergeCell ref="L96:M96"/>
     <mergeCell ref="N96:O96"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="G98:I98"/>
-    <mergeCell ref="K98:Q98"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="P99:Q99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="G100:I100"/>
+    <mergeCell ref="K100:Q100"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -518,6 +518,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>8.9100</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -545,12 +554,18 @@
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
-    <t>2:4</t>
+    <t>2:3</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t xml:space="preserve">LACTEOL FORTE  5 BILLION 12 CAP</t>
   </si>
   <si>
@@ -773,7 +788,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>18:0</t>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -824,9 +839,6 @@
     <t>محلول ملح</t>
   </si>
   <si>
-    <t>20:0</t>
-  </si>
-  <si>
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
@@ -836,7 +848,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:43 PM</t>
+    <t>Friday, 1 August, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3094,13 +3106,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3111,7 +3123,7 @@
         <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3127,13 +3139,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3144,7 +3156,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3160,7 +3172,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3170,14 +3182,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3186,14 +3198,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3203,14 +3215,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>98</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3226,7 +3238,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3236,14 +3248,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3252,31 +3264,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3285,31 +3297,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>56</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3318,14 +3330,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3335,14 +3347,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>127</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3351,7 +3363,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3364,18 +3376,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3384,14 +3396,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3401,11 +3413,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>26</v>
@@ -3417,28 +3429,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3450,14 +3462,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3467,14 +3479,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3483,31 +3495,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3516,28 +3528,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>117</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>118</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3549,14 +3561,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3566,14 +3578,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>117</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3582,7 +3594,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3599,14 +3611,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>62</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3615,14 +3627,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>214</v>
+        <v>38</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,14 +3660,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3714,7 +3726,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3747,14 +3759,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3780,7 +3792,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3830,11 +3842,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>186</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3912,14 +3924,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3945,14 +3957,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3962,14 +3974,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>101</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,31 +3990,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4028,11 +4040,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4044,14 +4056,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,11 +4073,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>24</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>124</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4122,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>38</v>
+        <v>253</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,7 +4155,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>254</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4176,7 +4188,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4193,14 +4205,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>206</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>60</v>
+        <v>259</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,14 +4238,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,14 +4271,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>123</v>
+        <v>263</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,11 +4304,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,14 +4337,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>264</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4341,7 +4353,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4391,14 +4403,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4407,14 +4419,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4436,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>269</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>271</v>
+        <v>83</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4473,14 +4485,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>45</v>
+        <v>259</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,49 +4502,82 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>273</v>
+        <v>152</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q98" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>276</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>45</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>148</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>277</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="99" ht="25.5" customHeight="1">
-      <c r="P99" s="13">
-        <v>5239.3299999999999</v>
-      </c>
-      <c r="Q99" s="13"/>
-    </row>
-    <row r="100" ht="16.5" customHeight="1">
-      <c t="s" r="A100" s="14">
-        <v>275</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c t="s" r="G100" s="15">
-        <v>276</v>
-      </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="16"/>
-      <c t="s" r="K100" s="17">
-        <v>277</v>
-      </c>
-      <c r="L100" s="17"/>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5264.2399999999998</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>279</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>280</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>281</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="472">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5001,10 +5046,15 @@
     <mergeCell ref="H98:K98"/>
     <mergeCell ref="L98:M98"/>
     <mergeCell ref="N98:O98"/>
-    <mergeCell ref="P99:Q99"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="G100:I100"/>
-    <mergeCell ref="K100:Q100"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -509,6 +509,15 @@
     <t>47.0000</t>
   </si>
   <si>
+    <t>FUTAPAN 40 MG VIAL I.V.</t>
+  </si>
+  <si>
+    <t>59.50</t>
+  </si>
+  <si>
+    <t>59.5000</t>
+  </si>
+  <si>
     <t>GLYBOFEN 5/1000MG 30 F.C.TABS.</t>
   </si>
   <si>
@@ -545,6 +554,15 @@
     <t>134.0000</t>
   </si>
   <si>
+    <t>ITOPRIDE 50MG 30 SCORED TAB</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
@@ -665,6 +683,15 @@
     <t>98.00</t>
   </si>
   <si>
+    <t>PROTOFIX 40MG 14 F.C. TAB</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>58.0000</t>
+  </si>
+  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -728,12 +755,15 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8458:0</t>
+    <t>8456:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>ZELAGAP 0.05% EYE DROPS 6 ML</t>
   </si>
   <si>
@@ -782,9 +812,6 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>16.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -797,6 +824,12 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -848,7 +881,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:50 PM</t>
+    <t>Friday, 1 August, 2025 10:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3073,7 +3106,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3083,14 +3116,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3106,7 +3139,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3116,7 +3149,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3139,13 +3172,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>38</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3156,7 +3189,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3172,13 +3205,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3189,7 +3222,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3205,7 +3238,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3215,14 +3248,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3231,14 +3264,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3255,7 +3288,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>184</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3264,14 +3297,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3281,11 +3314,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3297,31 +3330,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3330,14 +3363,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3347,14 +3380,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3370,24 +3403,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>38</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3396,31 +3429,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>127</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3436,13 +3469,13 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3453,7 +3486,7 @@
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3469,13 +3502,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3502,13 +3535,13 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
@@ -3516,10 +3549,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>162</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>112</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3528,20 +3561,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3568,7 +3601,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3578,14 +3611,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3594,31 +3627,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>38</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>148</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>56</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3627,14 +3660,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3644,14 +3677,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>62</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3660,14 +3693,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3684,7 +3717,7 @@
         <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3700,7 +3733,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3714,10 +3747,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3726,14 +3759,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3743,14 +3776,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3759,14 +3792,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3799,7 +3832,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3809,14 +3842,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3825,14 +3858,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3842,11 +3875,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3858,14 +3891,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3875,14 +3908,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>138</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3891,14 +3924,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>151</v>
+        <v>83</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3908,14 +3941,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>23</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3924,14 +3957,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>239</v>
+        <v>83</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3941,14 +3974,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>152</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>45</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3957,14 +3990,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3974,11 +4007,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>137</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3990,14 +4023,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4007,14 +4040,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4023,31 +4056,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4056,28 +4089,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>38</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>24</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4089,31 +4122,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4122,14 +4155,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4139,14 +4172,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>124</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4155,14 +4188,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4172,14 +4205,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4188,7 +4221,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4205,14 +4238,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>124</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>259</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4221,14 +4254,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4238,14 +4271,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4254,14 +4287,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4271,14 +4304,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4287,14 +4320,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4304,14 +4337,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4320,14 +4353,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4337,14 +4370,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4353,14 +4386,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4370,11 +4403,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>134</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>56</v>
@@ -4386,14 +4419,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4403,14 +4436,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4419,14 +4452,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4436,11 +4469,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>146</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4452,14 +4485,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4469,14 +4502,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>114</v>
+        <v>280</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4485,14 +4518,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>259</v>
+        <v>38</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4502,14 +4535,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>152</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4518,14 +4551,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4535,49 +4568,148 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>278</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5264.2399999999998</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>279</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>280</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>281</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>284</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>83</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>148</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>114</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>285</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>286</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>268</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>148</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>152</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>149</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
+        <v>287</v>
+      </c>
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>45</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>148</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>288</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>289</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5410.5600000000004</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
+        <v>290</v>
+      </c>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>291</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>292</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5051,10 +5183,25 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -302,99 +302,105 @@
     <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
   </si>
   <si>
-    <t>5:2</t>
+    <t>5:0</t>
   </si>
   <si>
     <t>36.00</t>
   </si>
   <si>
+    <t>71.2800</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>DENSITIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>31.6800</t>
+  </si>
+  <si>
+    <t>DEPO-PEN 1.2 MIU VIAL.</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
+    <t>DEXAZONE 0.5MG 60 TAB</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOGMATIL FORT 200MG 10 TAB</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>6:2</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
     <t>47.5200</t>
   </si>
   <si>
-    <t>DENSITIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>31.6800</t>
-  </si>
-  <si>
-    <t>DEPO-PEN 1.2 MIU VIAL.</t>
-  </si>
-  <si>
-    <t>25.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>13.0000</t>
-  </si>
-  <si>
-    <t>DEXAZONE 0.5MG 60 TAB</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOGMATIL FORT 200MG 10 TAB</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>6:2</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
   </si>
   <si>
@@ -419,9 +425,6 @@
     <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>26.00</t>
   </si>
   <si>
@@ -656,9 +659,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -704,6 +704,15 @@
     <t>28.2000</t>
   </si>
   <si>
+    <t>RENAL S-N 12 SACHET</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>SUGARLO PLUS 50/1000MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -815,63 +824,66 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرش  فوكس عرض</t>
+  </si>
+  <si>
+    <t>فرشاة اطفال ريتش ديلي</t>
+  </si>
+  <si>
+    <t>30:0</t>
+  </si>
+  <si>
+    <t>قياس سكر</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>كريم فاتيكا 190 مل</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
     <t>20:0</t>
   </si>
   <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرش  فوكس عرض</t>
-  </si>
-  <si>
-    <t>فرشاة اطفال ريتش ديلي</t>
-  </si>
-  <si>
-    <t>30:0</t>
-  </si>
-  <si>
-    <t>قياس سكر</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>كريم ONE للبشره الحساسه</t>
-  </si>
-  <si>
-    <t>كريم فاتيكا 190 مل</t>
-  </si>
-  <si>
-    <t>65.0000</t>
-  </si>
-  <si>
-    <t>محلول ملح</t>
-  </si>
-  <si>
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
@@ -881,7 +893,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:52 PM</t>
+    <t>Friday, 1 August, 2025 10:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2298,7 +2310,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2307,7 +2319,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2324,11 +2336,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>26</v>
@@ -2340,7 +2352,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2361,7 +2373,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2373,7 +2385,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2390,11 +2402,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2406,7 +2418,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2427,7 +2439,7 @@
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>56</v>
@@ -2439,7 +2451,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2460,10 +2472,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2472,7 +2484,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2489,11 +2501,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>26</v>
@@ -2505,7 +2517,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2522,11 +2534,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>26</v>
@@ -2538,7 +2550,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2555,11 +2567,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>26</v>
@@ -2571,7 +2583,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2588,11 +2600,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2604,14 +2616,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2621,14 +2633,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2637,14 +2649,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2670,7 +2682,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2687,11 +2699,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>23</v>
@@ -2703,7 +2715,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2720,11 +2732,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>26</v>
@@ -2736,14 +2748,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2753,11 +2765,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2769,7 +2781,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2790,7 +2802,7 @@
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>26</v>
@@ -2802,7 +2814,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2823,7 +2835,7 @@
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2835,7 +2847,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2852,7 +2864,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2868,7 +2880,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2901,7 +2913,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2914,7 +2926,7 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2922,7 +2934,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2934,14 +2946,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2951,11 +2963,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>26</v>
@@ -2967,7 +2979,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2984,11 +2996,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>26</v>
@@ -3000,7 +3012,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3017,11 +3029,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3033,7 +3045,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3050,11 +3062,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3066,7 +3078,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3083,11 +3095,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3099,7 +3111,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3116,11 +3128,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3132,14 +3144,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3149,11 +3161,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>26</v>
@@ -3165,14 +3177,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3182,11 +3194,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>26</v>
@@ -3198,7 +3210,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3211,15 +3223,15 @@
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3231,7 +3243,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3248,11 +3260,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>56</v>
@@ -3264,7 +3276,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3281,11 +3293,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>26</v>
@@ -3297,7 +3309,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3318,7 +3330,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3330,14 +3342,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3347,14 +3359,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3363,7 +3375,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3380,11 +3392,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3396,28 +3408,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>26</v>
@@ -3429,7 +3441,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3446,11 +3458,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>23</v>
@@ -3462,7 +3474,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3479,11 +3491,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3495,7 +3507,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3508,15 +3520,15 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3528,7 +3540,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3541,15 +3553,15 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3561,7 +3573,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3578,11 +3590,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3594,7 +3606,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3611,14 +3623,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3627,20 +3639,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3677,11 +3689,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3832,7 +3844,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3849,7 +3861,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3865,7 +3877,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3882,7 +3894,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3915,7 +3927,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3931,7 +3943,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3941,14 +3953,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>93</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3957,7 +3969,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3974,14 +3986,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3990,14 +4002,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4007,11 +4019,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4023,14 +4035,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4040,14 +4052,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4056,14 +4068,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>152</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4073,14 +4085,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>249</v>
+        <v>118</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4089,14 +4101,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>38</v>
+        <v>251</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4113,7 +4125,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4129,7 +4141,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>136</v>
+        <v>38</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4139,14 +4151,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4155,31 +4167,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>256</v>
+        <v>97</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>148</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4188,28 +4200,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4221,28 +4233,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>24</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4261,24 +4273,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>263</v>
+        <v>38</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4294,24 +4306,24 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>38</v>
+        <v>266</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>136</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4320,7 +4332,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4333,18 +4345,18 @@
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>268</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4353,7 +4365,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4366,11 +4378,11 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
@@ -4393,13 +4405,13 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4407,10 +4419,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q94" s="12">
         <v>275</v>
-      </c>
-      <c t="s" r="Q94" s="12">
-        <v>56</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4426,24 +4438,24 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>277</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>124</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4452,28 +4464,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4485,31 +4497,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>280</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4518,7 +4530,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4531,18 +4543,18 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>283</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>282</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>83</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4551,31 +4563,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>146</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4584,28 +4596,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4617,31 +4629,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>268</v>
+        <v>83</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4650,66 +4662,99 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>45</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>288</v>
+        <v>153</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q102" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>291</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>45</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>149</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>292</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>293</v>
+      </c>
+      <c t="s" r="Q103" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5410.5600000000004</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>290</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>291</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>292</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5468.3199999999997</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>294</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>295</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>296</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5198,10 +5243,15 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -80,33 +80,39 @@
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
+  </si>
+  <si>
+    <t>3:17</t>
+  </si>
+  <si>
+    <t>286.00</t>
+  </si>
+  <si>
+    <t>14.3000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
+  </si>
+  <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>25.00</t>
-  </si>
-  <si>
-    <t>12.5000</t>
-  </si>
-  <si>
-    <t>0:1</t>
-  </si>
-  <si>
-    <t>ATROVENT 250MCG/2ML 20 UNIT DOSE VIAL</t>
-  </si>
-  <si>
-    <t>3:17</t>
-  </si>
-  <si>
-    <t>286.00</t>
-  </si>
-  <si>
-    <t>14.3000</t>
-  </si>
-  <si>
-    <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
-  </si>
-  <si>
     <t>210.00</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
     <t>AZELAST PLUS 125/50 MCG NASAL SPRAY 25 ML</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
@@ -179,9 +182,6 @@
     <t>BRUFEN 600MG 30 TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>99.00</t>
   </si>
   <si>
@@ -539,6 +539,15 @@
     <t>8.9100</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>-86.5000</t>
+  </si>
+  <si>
     <t>HUSH SACHET</t>
   </si>
   <si>
@@ -893,7 +902,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:53 PM</t>
+    <t>Friday, 1 August, 2025 10:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1650,7 +1659,7 @@
         <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1659,14 +1668,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1676,14 +1685,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1692,14 +1701,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1709,14 +1718,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1725,14 +1734,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1742,11 +1751,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1758,14 +1767,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1775,11 +1784,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1791,14 +1800,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1808,11 +1817,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1824,14 +1833,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1841,11 +1850,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1857,7 +1866,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1874,14 +1883,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1890,14 +1899,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1914,7 +1923,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1947,7 +1956,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1980,7 +1989,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2029,7 +2038,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2079,7 +2088,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2095,7 +2104,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2112,7 +2121,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2178,7 +2187,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2211,7 +2220,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2227,7 +2236,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2326,7 +2335,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2343,7 +2352,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2425,7 +2434,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2442,7 +2451,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>56</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2508,7 +2517,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2541,7 +2550,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2574,7 +2583,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2670,10 +2679,10 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2706,7 +2715,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2722,7 +2731,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2739,7 +2748,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2788,7 +2797,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2798,14 +2807,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2821,7 +2830,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2854,7 +2863,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2877,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2920,7 +2929,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2970,7 +2979,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2986,7 +2995,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3003,7 +3012,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3036,7 +3045,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3052,7 +3061,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3168,7 +3177,7 @@
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3201,7 +3210,7 @@
         <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3217,13 +3226,13 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
@@ -3234,7 +3243,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3250,13 +3259,13 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
@@ -3267,7 +3276,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3283,7 +3292,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3300,7 +3309,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3316,7 +3325,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3326,14 +3335,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,14 +3351,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3359,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3375,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3392,14 +3401,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3415,24 +3424,24 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3441,31 +3450,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>128</v>
+        <v>200</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3474,14 +3483,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3491,14 +3500,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3514,13 +3523,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3531,7 +3540,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3547,7 +3556,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3564,7 +3573,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3580,13 +3589,13 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3597,7 +3606,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3613,7 +3622,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3627,10 +3636,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3639,31 +3648,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3679,24 +3688,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3714,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,14 +3731,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>118</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3745,7 +3754,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3759,10 +3768,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3771,7 +3780,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3788,14 +3797,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3811,7 +3820,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3837,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3861,7 +3870,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3877,7 +3886,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3894,7 +3903,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3910,7 +3919,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3927,7 +3936,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,7 +3969,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3976,7 +3985,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>128</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>93</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,7 +4011,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4019,14 +4028,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4068,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4094,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>251</v>
+        <v>152</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>118</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>38</v>
+        <v>254</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4158,7 +4167,7 @@
         <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4174,7 +4183,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4184,14 +4193,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,31 +4209,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>259</v>
+        <v>97</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4250,11 +4259,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4266,14 +4275,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>38</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4283,11 +4292,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4306,7 +4315,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>266</v>
+        <v>26</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4316,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>125</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4339,7 +4348,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>38</v>
+        <v>269</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4349,14 +4358,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>97</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4365,14 +4374,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4382,14 +4391,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>271</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>272</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4405,7 +4414,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4415,11 +4424,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>275</v>
@@ -4438,7 +4447,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4452,10 +4461,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q95" s="12">
         <v>278</v>
-      </c>
-      <c t="s" r="Q95" s="12">
-        <v>56</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4471,7 +4480,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4481,14 +4490,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>124</v>
+        <v>280</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4497,14 +4506,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>281</v>
+        <v>60</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4514,11 +4523,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4530,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4547,14 +4556,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4563,14 +4572,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4580,14 +4589,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>285</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4613,14 +4622,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>147</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4629,14 +4638,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4646,11 +4655,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4662,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>83</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4679,14 +4688,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>150</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4712,49 +4721,82 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q103" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>294</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>46</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>149</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>295</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5468.3199999999997</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>294</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>295</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>296</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5369.3199999999997</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>297</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>298</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>299</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5248,10 +5290,15 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -158,6 +158,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>BIVATRACIN 150MG POWDER SPRAY</t>
   </si>
   <si>
@@ -233,12 +242,6 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -605,6 +608,9 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
     <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
   </si>
   <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
@@ -824,6 +833,12 @@
     <t>20.00</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت فاتيكا زاتون 180مل </t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -902,7 +917,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 10:56 PM</t>
+    <t>Friday, 1 August, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1840,7 +1855,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1857,7 +1872,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1873,7 +1888,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1890,7 +1905,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1899,14 +1914,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1916,14 +1931,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>58</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1939,7 +1954,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1949,14 +1964,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1965,14 +1980,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1989,7 +2004,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2005,7 +2020,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2015,14 +2030,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2031,14 +2046,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2071,7 +2086,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2088,7 +2103,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2104,7 +2119,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2114,11 +2129,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>31</v>
@@ -2130,14 +2145,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2147,14 +2162,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2163,14 +2178,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2180,14 +2195,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2196,14 +2211,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2213,11 +2228,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>31</v>
@@ -2229,14 +2244,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2246,14 +2261,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2262,14 +2277,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2279,14 +2294,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2295,14 +2310,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2312,14 +2327,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>100</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2328,14 +2343,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2345,14 +2360,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>31</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2361,14 +2376,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2378,14 +2393,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2394,14 +2409,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2411,11 +2426,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>24</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2427,14 +2442,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2444,14 +2459,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2460,14 +2475,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2477,14 +2492,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>113</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2493,14 +2508,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2510,14 +2525,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2526,14 +2541,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2543,11 +2558,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>31</v>
@@ -2559,14 +2574,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2576,11 +2591,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>31</v>
@@ -2592,7 +2607,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2609,14 +2624,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2625,14 +2640,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2642,14 +2657,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2658,14 +2673,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2675,14 +2690,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2691,14 +2706,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2708,14 +2723,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2724,14 +2739,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2741,14 +2756,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2757,14 +2772,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2774,14 +2789,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2790,14 +2805,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2807,14 +2822,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2823,14 +2838,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2840,14 +2855,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2856,14 +2871,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2873,11 +2888,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2889,14 +2904,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2906,11 +2921,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2922,28 +2937,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2955,31 +2970,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2988,14 +3003,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3005,11 +3020,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -3021,14 +3036,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3038,11 +3053,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -3054,14 +3069,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3071,14 +3086,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3087,14 +3102,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,11 +3119,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3120,14 +3135,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3137,11 +3152,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3153,14 +3168,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>63</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3170,14 +3185,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,14 +3201,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,11 +3218,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3219,14 +3234,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>23</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,14 +3251,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3252,31 +3267,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3285,31 +3300,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3318,14 +3333,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3335,14 +3350,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3351,14 +3366,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3368,14 +3383,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>98</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3384,14 +3399,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>94</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3416,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>99</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>194</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,14 +3432,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3434,14 +3449,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,31 +3465,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3483,14 +3498,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3500,14 +3515,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3516,31 +3531,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3549,31 +3564,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3582,31 +3597,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3615,28 +3630,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3648,31 +3663,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>113</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3681,28 +3696,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3746,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>118</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,31 +3762,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,14 +3795,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3830,14 +3845,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3846,14 +3861,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3863,14 +3878,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3896,14 +3911,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3927,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>21</v>
+        <v>233</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3929,11 +3944,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3945,14 +3960,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3962,11 +3977,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,11 +4010,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4028,14 +4043,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>128</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>93</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,14 +4059,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4061,14 +4076,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4094,14 +4109,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,14 +4175,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>139</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>67</v>
+        <v>23</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4176,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>119</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>97</v>
+        <v>257</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4241,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>23</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4242,28 +4257,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>26</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4282,24 +4297,24 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>149</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>105</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,28 +4323,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4341,31 +4356,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>270</v>
+        <v>24</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,7 +4389,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4387,18 +4402,18 @@
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>136</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,31 +4422,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>274</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>275</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,7 +4455,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4453,18 +4468,18 @@
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>278</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4473,31 +4488,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4506,31 +4521,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>124</v>
+        <v>258</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>125</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,31 +4554,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>284</v>
+        <v>26</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>15</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>16</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4572,28 +4587,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4612,24 +4627,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4638,28 +4653,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>147</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4678,24 +4693,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>115</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4711,24 +4726,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>26</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4744,59 +4759,158 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>295</v>
+        <v>134</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>296</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5369.3199999999997</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>295</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>84</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>150</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>116</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>296</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
         <v>297</v>
       </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
         <v>298</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>150</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>154</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>151</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>299</v>
       </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>46</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>150</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>300</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>301</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5485.0500000000002</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>302</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>303</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>304</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5295,10 +5409,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -395,13 +395,13 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>6:2</t>
+    <t>6:1</t>
   </si>
   <si>
     <t>48.00</t>
   </si>
   <si>
-    <t>47.5200</t>
+    <t>63.3600</t>
   </si>
   <si>
     <t>DOLPHIN 12.5MG 10 SUPP</t>
@@ -470,9 +470,6 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>6:1</t>
-  </si>
-  <si>
     <t>24.00</t>
   </si>
   <si>
@@ -917,7 +914,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:06 PM</t>
+    <t>Friday, 1 August, 2025 11:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2697,7 +2694,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>114</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -3010,7 +3007,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3020,11 +3017,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>31</v>
@@ -3036,7 +3033,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3053,11 +3050,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>31</v>
@@ -3069,7 +3066,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3086,11 +3083,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>31</v>
@@ -3102,7 +3099,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3119,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3135,7 +3132,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3152,11 +3149,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3168,7 +3165,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3185,11 +3182,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3201,14 +3198,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3222,7 +3219,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>31</v>
@@ -3234,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3251,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>31</v>
@@ -3267,7 +3264,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3284,11 +3281,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>58</v>
@@ -3300,7 +3297,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3317,11 +3314,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3333,7 +3330,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3350,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>23</v>
@@ -3366,7 +3363,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3383,11 +3380,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>31</v>
@@ -3399,7 +3396,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3420,7 +3417,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3432,14 +3429,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,14 +3446,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>195</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3465,7 +3462,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3482,11 +3479,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3498,7 +3495,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3531,14 +3528,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3548,11 +3545,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>31</v>
@@ -3564,7 +3561,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3585,7 +3582,7 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>33</v>
@@ -3597,7 +3594,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3614,11 +3611,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3630,7 +3627,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3647,11 +3644,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>31</v>
@@ -3663,7 +3660,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3680,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>31</v>
@@ -3696,7 +3693,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3713,11 +3710,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>31</v>
@@ -3729,7 +3726,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3746,11 +3743,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>114</v>
@@ -3762,7 +3759,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3779,11 +3776,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>31</v>
@@ -3795,7 +3792,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3845,11 +3842,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>23</v>
@@ -3861,7 +3858,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3878,7 +3875,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3894,7 +3891,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3911,11 +3908,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>31</v>
@@ -3927,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,11 +3941,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3960,7 +3957,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3977,11 +3974,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3993,7 +3990,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4010,11 +4007,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>31</v>
@@ -4026,7 +4023,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4043,11 +4040,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4059,7 +4056,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4076,11 +4073,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>31</v>
@@ -4092,7 +4089,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4113,7 +4110,7 @@
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>94</v>
@@ -4125,7 +4122,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4142,11 +4139,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4158,7 +4155,7 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
@@ -4179,7 +4176,7 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>23</v>
@@ -4191,14 +4188,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4212,7 +4209,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>33</v>
@@ -4224,14 +4221,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,11 +4238,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>70</v>
@@ -4257,7 +4254,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4274,11 +4271,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4290,7 +4287,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4311,7 +4308,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>23</v>
@@ -4323,14 +4320,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4356,14 +4353,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4389,7 +4386,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4406,11 +4403,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4422,14 +4419,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,7 +4436,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4455,7 +4452,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4472,11 +4469,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4488,7 +4485,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4505,7 +4502,7 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
@@ -4521,7 +4518,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4538,14 +4535,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q97" s="12">
         <v>279</v>
-      </c>
-      <c t="s" r="Q97" s="12">
-        <v>280</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,7 +4551,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4571,14 +4568,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4587,7 +4584,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4604,11 +4601,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>23</v>
@@ -4620,7 +4617,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4653,14 +4650,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4686,7 +4683,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4703,7 +4700,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4719,7 +4716,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4740,7 +4737,7 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>84</v>
@@ -4752,7 +4749,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4785,7 +4782,7 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
@@ -4806,7 +4803,7 @@
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4818,14 +4815,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4835,7 +4832,7 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
@@ -4851,7 +4848,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4868,11 +4865,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4880,13 +4877,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>5485.0500000000002</v>
+        <v>5500.8900000000003</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4894,13 +4891,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:12 PM</t>
+    <t>Friday, 1 August, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -635,6 +635,15 @@
     <t>41.0000</t>
   </si>
   <si>
+    <t>MOMENTA CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">MORALACT  TAB</t>
   </si>
   <si>
@@ -914,7 +923,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:16 PM</t>
+    <t>Friday, 1 August, 2025 11:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3640,7 +3649,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3651,7 +3660,7 @@
         <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3667,7 +3676,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3700,13 +3709,13 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
@@ -3733,7 +3742,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3747,10 +3756,10 @@
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>163</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>114</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3759,31 +3768,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3799,21 +3808,21 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>150</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>120</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>31</v>
@@ -3825,14 +3834,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>119</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,10 +3888,10 @@
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>65</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3891,14 +3900,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3931,7 +3940,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3941,11 +3950,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>31</v>
@@ -3957,14 +3966,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>23</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3981,7 +3990,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3997,7 +4006,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4014,7 +4023,7 @@
         <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4030,7 +4039,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4047,7 +4056,7 @@
         <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4080,7 +4089,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4096,7 +4105,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>248</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>94</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4122,7 +4131,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4188,14 +4197,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4221,14 +4230,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,14 +4247,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>257</v>
+        <v>119</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>70</v>
+        <v>33</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>26</v>
+        <v>259</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4278,7 +4287,7 @@
         <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4294,7 +4303,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4304,14 +4313,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4320,31 +4329,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4353,14 +4362,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4370,11 +4379,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4386,14 +4395,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>26</v>
+        <v>269</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4403,11 +4412,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>268</v>
+        <v>24</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>269</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4426,7 +4435,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>26</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4436,14 +4445,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4459,7 +4468,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4469,14 +4478,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4485,7 +4494,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4518,7 +4527,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>279</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4568,11 +4577,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>282</v>
@@ -4591,7 +4600,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4605,10 +4614,10 @@
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q99" s="12">
         <v>285</v>
-      </c>
-      <c t="s" r="Q99" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4624,7 +4633,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,14 +4643,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>126</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4650,14 +4659,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>288</v>
+        <v>63</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>26</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4700,14 +4709,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4716,7 +4725,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4733,14 +4742,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>292</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>84</v>
+        <v>23</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>134</v>
+        <v>14</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4799,11 +4808,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>297</v>
+        <v>84</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>46</v>
+        <v>300</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4865,49 +4874,82 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>299</v>
+        <v>153</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q107" s="12">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>301</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>46</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>150</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>302</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>303</v>
+      </c>
+      <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5500.8900000000003</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>301</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>302</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>303</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5555.8900000000003</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>304</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>305</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>306</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5421,10 +5463,15 @@
     <mergeCell ref="H107:K107"/>
     <mergeCell ref="L107:M107"/>
     <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -923,7 +923,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:18 PM</t>
+    <t>Friday, 1 August, 2025 11:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -77,6 +77,21 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>AMRI-K 10MG/ML 5 AMP. I.M.</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -104,9 +119,6 @@
     <t>14.3000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AUGMENTIN 1 GM 14 F.C. TABS.</t>
   </si>
   <si>
@@ -194,7 +206,7 @@
     <t>99.00</t>
   </si>
   <si>
-    <t>32.6700</t>
+    <t>65.3400</t>
   </si>
   <si>
     <t>CALAMYL LOTION 100 ML</t>
@@ -386,9 +398,6 @@
     <t>DOGMATIL FORT 200MG 10 TAB</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>40.0000</t>
   </si>
   <si>
@@ -575,12 +584,15 @@
     <t>17.8200</t>
   </si>
   <si>
+    <t>KAPRON 500 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>36.0000</t>
+  </si>
+  <si>
     <t>KENACOMB TOPICAL CREAM 15 GM</t>
   </si>
   <si>
-    <t>36.0000</t>
-  </si>
-  <si>
     <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
   </si>
   <si>
@@ -854,10 +866,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>22:0</t>
+    <t>46.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -923,7 +932,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:19 PM</t>
+    <t>Friday, 1 August, 2025 11:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1713,7 +1722,7 @@
         <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1739,14 +1748,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1755,7 +1764,7 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
@@ -1772,14 +1781,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1788,14 +1797,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1805,11 +1814,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1821,14 +1830,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1861,7 +1870,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1871,14 +1880,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1887,14 +1896,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1904,14 +1913,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1920,14 +1929,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1937,14 +1946,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>58</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1960,7 +1969,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1977,7 +1986,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1986,14 +1995,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2010,7 +2019,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2026,7 +2035,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2036,14 +2045,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2052,14 +2061,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2076,7 +2085,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2092,7 +2101,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2102,11 +2111,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2118,14 +2127,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2135,14 +2144,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2151,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2168,14 +2177,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2184,14 +2193,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2201,14 +2210,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2217,14 +2226,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2241,7 +2250,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2257,7 +2266,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2267,14 +2276,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2283,14 +2292,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2300,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2316,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2340,7 +2349,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2373,7 +2382,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2382,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2406,7 +2415,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>31</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2415,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2432,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2448,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2465,11 +2474,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2481,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2498,14 +2507,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2514,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2531,14 +2540,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2547,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2564,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2580,14 +2589,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2597,14 +2606,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2613,14 +2622,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2630,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2646,7 +2655,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2663,14 +2672,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2679,14 +2688,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2696,14 +2705,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2712,14 +2721,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2729,14 +2738,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2745,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2762,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2785,7 +2794,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2795,14 +2804,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2811,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2828,14 +2837,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2851,7 +2860,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2861,14 +2870,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2877,7 +2886,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2894,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2910,7 +2919,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2927,11 +2936,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2943,14 +2952,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2960,11 +2969,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2976,24 +2985,24 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -3016,24 +3025,24 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3049,7 +3058,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3066,7 +3075,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3082,7 +3091,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3099,7 +3108,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3115,7 +3124,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3132,7 +3141,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3148,7 +3157,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3181,7 +3190,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3214,7 +3223,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3224,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3247,7 +3256,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3257,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3280,7 +3289,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3297,7 +3306,7 @@
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3313,13 +3322,13 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
@@ -3330,7 +3339,7 @@
         <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3346,13 +3355,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3363,7 +3372,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3379,7 +3388,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3396,7 +3405,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3412,7 +3421,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3422,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3438,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3455,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3471,14 +3480,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3488,11 +3497,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3504,14 +3513,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3521,14 +3530,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3544,24 +3553,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>31</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3570,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3587,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>129</v>
+        <v>51</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3603,31 +3612,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3636,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3653,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3669,31 +3678,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3702,31 +3711,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3735,7 +3744,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3748,18 +3757,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3768,31 +3777,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>163</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>114</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3801,31 +3810,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3834,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3851,14 +3860,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>119</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>31</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3874,13 +3883,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3891,7 +3900,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3907,7 +3916,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3917,14 +3926,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>230</v>
+        <v>123</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3933,7 +3942,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3950,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3966,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>31</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3983,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3999,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4016,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4032,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>21</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4049,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4065,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4082,11 +4091,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4098,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4115,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4131,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4148,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4164,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4181,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>153</v>
+        <v>252</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
         <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4204,7 +4213,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4214,14 +4223,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4237,7 +4246,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4247,14 +4256,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
         <v>257</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4270,7 +4279,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4280,14 +4289,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>70</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4296,14 +4305,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4313,14 +4322,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>123</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4329,14 +4338,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4346,14 +4355,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4369,21 +4378,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>267</v>
+        <v>31</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>15</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4395,31 +4404,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>269</v>
+        <v>102</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>150</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4435,21 +4444,21 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>272</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4461,31 +4470,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>275</v>
+        <v>29</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4494,28 +4503,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>213</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4527,20 +4536,20 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>26</v>
+        <v>278</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
@@ -4548,10 +4557,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>98</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4567,24 +4576,24 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>282</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4593,31 +4602,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>240</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>285</v>
+        <v>102</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4626,31 +4635,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>264</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>23</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4659,31 +4668,31 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>125</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>126</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>288</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4692,31 +4701,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>98</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>15</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4732,24 +4741,24 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>293</v>
+        <v>24</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4758,20 +4767,20 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4779,10 +4788,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>295</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4791,31 +4800,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4831,24 +4840,24 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
         <v>298</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4864,24 +4873,24 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>300</v>
+        <v>16</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4890,66 +4899,132 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>302</v>
+        <v>120</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5555.8900000000003</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>302</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>303</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>153</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>156</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>304</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>50</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>153</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
         <v>305</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
         <v>306</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5634.5600000000004</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
+        <v>307</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>308</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>309</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5468,10 +5543,20 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -932,7 +932,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:21 PM</t>
+    <t>Friday, 1 August, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -284,6 +284,18 @@
     <t>22.0000</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
@@ -341,9 +353,6 @@
     <t>DEPO-PEN 1.2 MIU VIAL.</t>
   </si>
   <si>
-    <t>25.0000</t>
-  </si>
-  <si>
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
@@ -539,6 +548,12 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>GYNO-DAKTARIN 2% VAGINAL CREAM 40 GM</t>
+  </si>
+  <si>
+    <t>35.50</t>
+  </si>
+  <si>
     <t>HAEMOSTOP 250MG/2ML 3 AMP.</t>
   </si>
   <si>
@@ -932,7 +947,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:26 PM</t>
+    <t>Friday, 1 August, 2025 11:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2299,7 +2314,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2309,11 +2324,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>26</v>
@@ -2325,14 +2340,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2342,14 +2357,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2358,14 +2373,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2382,7 +2397,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2415,7 +2430,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2424,14 +2439,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2448,7 +2463,7 @@
         <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2457,14 +2472,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2474,14 +2489,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2490,14 +2505,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2507,11 +2522,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2530,7 +2545,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2540,14 +2555,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2556,14 +2571,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2573,14 +2588,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>118</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2596,7 +2611,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>98</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2606,14 +2621,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2629,7 +2644,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2662,7 +2677,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2705,14 +2720,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>24</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2721,14 +2736,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,14 +2753,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>24</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2754,14 +2769,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2771,14 +2786,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>52</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2802,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2819,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2827,7 +2842,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,14 +2852,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>24</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,14 +2868,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2870,14 +2885,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>24</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2893,7 +2908,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,14 +2918,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2919,14 +2934,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,14 +2951,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2967,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,11 +2984,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>39</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2985,14 +3000,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,11 +3017,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3018,24 +3033,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -3058,24 +3073,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>131</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3091,7 +3106,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3124,7 +3139,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3157,7 +3172,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3174,7 +3189,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3190,7 +3205,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3223,7 +3238,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3256,7 +3271,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3266,14 +3281,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3289,7 +3304,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3299,7 +3314,7 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
@@ -3322,7 +3337,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3336,10 +3351,10 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>62</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3348,31 +3363,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3381,14 +3396,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3413,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,7 +3429,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3427,18 +3442,18 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3447,14 +3462,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3464,14 +3479,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>191</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3487,7 +3502,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3512,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>103</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,14 +3528,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3530,14 +3545,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>198</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3561,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,11 +3578,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3579,14 +3594,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>98</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3611,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,20 +3627,20 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3636,7 +3651,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3652,7 +3667,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3677,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,20 +3693,20 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
@@ -3702,7 +3717,7 @@
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3718,7 +3733,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3728,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,7 +3759,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3757,18 +3772,18 @@
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3777,31 +3792,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3810,28 +3825,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>26</v>
@@ -3843,31 +3858,31 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>166</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>118</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3883,13 +3898,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3916,7 +3931,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>123</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>124</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3942,31 +3957,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>156</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3990,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,14 +4007,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>126</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4015,7 +4030,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4032,7 +4047,7 @@
         <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4048,7 +4063,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>31</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4058,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4074,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4107,14 +4122,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>21</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,11 +4139,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4140,14 +4155,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,11 +4172,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4173,14 +4188,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,11 +4205,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>26</v>
@@ -4206,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,14 +4238,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4246,7 +4261,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4271,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>131</v>
+        <v>88</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4337,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>264</v>
+        <v>145</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4371,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,14 +4403,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>267</v>
+        <v>126</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4404,14 +4419,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4421,14 +4436,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>107</v>
+        <v>269</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4437,28 +4452,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>271</v>
+        <v>31</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>15</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4470,31 +4485,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4503,28 +4518,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>31</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4549,18 +4564,18 @@
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>279</v>
+        <v>29</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,7 +4584,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4582,15 +4597,15 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>217</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4609,24 +4624,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>31</v>
+        <v>283</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4635,7 +4650,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4648,18 +4663,18 @@
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>271</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4668,7 +4683,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4681,18 +4696,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>244</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>288</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4708,24 +4723,24 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>28</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,31 +4749,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>24</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>129</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>293</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4767,31 +4782,31 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>294</v>
+        <v>102</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>15</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4800,31 +4815,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>296</v>
+        <v>24</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4833,20 +4848,20 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>31</v>
+        <v>299</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
@@ -4854,10 +4869,10 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4866,31 +4881,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>137</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4899,31 +4914,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,31 +4947,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>303</v>
+        <v>16</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
         <v>154</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4965,24 +4980,24 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>305</v>
+        <v>123</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
@@ -4993,38 +5008,104 @@
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5634.5600000000004</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>307</v>
       </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>308</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>156</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>159</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
         <v>309</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>50</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>156</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>310</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>311</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5695.0600000000004</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>312</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>313</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>314</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5553,10 +5634,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -947,7 +947,7 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:27 PM</t>
+    <t>Friday, 1 August, 2025 11:30 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -254,6 +254,18 @@
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
+    <t>CIDOLUT DEPOT 250MG 1 AMP.</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>CIPRODIAZOLE 500/500MG 20 F.C. TABS</t>
   </si>
   <si>
@@ -317,9 +329,6 @@
     <t>DAVALINDI 200.000 I.U./ML 1 I.M AMP.</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -881,7 +890,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>46.0000</t>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -941,13 +950,7 @@
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>Friday, 1 August, 2025 11:30 PM</t>
+    <t>Friday, 1 August, 2025 11:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2215,7 +2218,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2241,14 +2244,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2258,14 +2261,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2298,7 +2301,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2347,7 +2350,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2357,11 +2360,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>26</v>
@@ -2373,14 +2376,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2390,14 +2393,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2406,14 +2409,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2430,7 +2433,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2446,7 +2449,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2489,14 +2492,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2512,7 +2515,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2522,14 +2525,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2538,14 +2541,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2555,11 +2558,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>29</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2578,7 +2581,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2588,14 +2591,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2621,14 +2624,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2644,7 +2647,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2654,14 +2657,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>123</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>124</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2677,7 +2680,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2710,7 +2713,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2753,14 +2756,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2769,14 +2772,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2786,14 +2789,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>24</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2802,14 +2805,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2819,14 +2822,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2835,14 +2838,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2852,14 +2855,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2875,7 +2878,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2885,14 +2888,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2901,14 +2904,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2918,14 +2921,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>24</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2941,7 +2944,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2951,14 +2954,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>44</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2967,14 +2970,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2984,14 +2987,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3000,14 +3003,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3017,11 +3020,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3033,14 +3036,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3050,11 +3053,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3066,24 +3069,24 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3106,24 +3109,24 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>134</v>
+        <v>26</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3139,7 +3142,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3172,7 +3175,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3205,7 +3208,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3222,7 +3225,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3238,7 +3241,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3271,7 +3274,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3304,7 +3307,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3314,14 +3317,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3337,7 +3340,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,14 +3350,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3363,14 +3366,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3380,14 +3383,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3403,7 +3406,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3420,7 +3423,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3436,13 +3439,13 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
@@ -3453,7 +3456,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3469,13 +3472,13 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
@@ -3486,7 +3489,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3502,7 +3505,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3519,7 +3522,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3535,7 +3538,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3545,11 +3548,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3561,14 +3564,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3578,14 +3581,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>28</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3611,14 +3614,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>203</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3627,14 +3630,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>206</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3667,7 +3670,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>52</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3693,31 +3696,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>82</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3726,31 +3729,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>28</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>135</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3762,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3779,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>215</v>
+        <v>138</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3838,7 +3841,7 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3849,7 +3852,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3865,13 +3868,13 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3898,13 +3901,13 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3931,7 +3934,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3945,10 +3948,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>121</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3957,31 +3960,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>124</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3997,21 +4000,21 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>126</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>127</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>26</v>
@@ -4023,14 +4026,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4040,14 +4043,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>129</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4077,10 +4080,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>69</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4089,14 +4092,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4109,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4129,7 +4132,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>26</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,11 +4142,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>26</v>
@@ -4155,14 +4158,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4179,7 +4182,7 @@
         <v>249</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4198,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4212,7 +4215,7 @@
         <v>252</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4228,7 +4231,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4245,7 +4248,7 @@
         <v>255</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4278,7 +4281,7 @@
         <v>258</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4294,7 +4297,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,14 +4307,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>135</v>
+        <v>260</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4337,14 +4340,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4353,14 +4356,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4373,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4386,14 +4389,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4403,14 +4406,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4422,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4436,14 +4439,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>269</v>
+        <v>129</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>74</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4452,14 +4455,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>31</v>
+        <v>271</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4476,7 +4479,7 @@
         <v>273</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4492,7 +4495,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4505,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,31 +4521,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>109</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>15</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,28 +4554,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4584,28 +4587,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>31</v>
+        <v>281</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>29</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>281</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4624,24 +4627,24 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>283</v>
+        <v>31</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4657,24 +4660,24 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>31</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4683,7 +4686,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4696,18 +4699,18 @@
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>143</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4716,7 +4719,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4729,18 +4732,18 @@
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>276</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4749,7 +4752,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4762,15 +4765,15 @@
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>249</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>293</v>
@@ -4789,13 +4792,13 @@
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
@@ -4803,10 +4806,10 @@
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q104" s="12">
         <v>296</v>
-      </c>
-      <c t="s" r="Q104" s="12">
-        <v>28</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4822,24 +4825,24 @@
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,28 +4851,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>67</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4881,31 +4884,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>31</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>143</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4914,7 +4917,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4927,18 +4930,18 @@
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>304</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>303</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4947,31 +4950,31 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>140</v>
+        <v>14</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>154</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,28 +4983,28 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>306</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5013,31 +5016,31 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>308</v>
+        <v>92</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>157</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>102</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,66 +5049,99 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>50</v>
+        <v>311</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>310</v>
+        <v>162</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>311</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q112" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>312</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>50</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>159</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>83</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q113" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5695.0600000000004</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>312</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5768.0600000000004</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
         <v>313</v>
       </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
         <v>314</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>315</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5680,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -950,7 +950,7 @@
     <t>معجون اسنان كلوس اب وسط</t>
   </si>
   <si>
-    <t>Friday, 1 August, 2025 11:32 PM</t>
+    <t>Friday, 1 August, 2025 11:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:03 AM</t>
+    <t>Saturday, 2 August, 2025 12:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:10 AM</t>
+    <t>Saturday, 2 August, 2025 12:23 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:23 AM</t>
+    <t>Saturday, 2 August, 2025 12:24 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-08-01_00-00.xlsx
+++ b/DaySale_2025-08-01_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Saturday, 2 August, 2025 12:24 AM</t>
+    <t>Saturday, 2 August, 2025 12:29 AM</t>
   </si>
   <si>
     <t>1/1</t>
